--- a/JupyterNotebooks/AveragedIntensities-Exp/TRIP700A.xlsx
+++ b/JupyterNotebooks/AveragedIntensities-Exp/TRIP700A.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>HKL</t>
   </si>
   <si>
     <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Bruker</t>
   </si>
   <si>
     <t>ND Single</t>
@@ -572,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V48"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,64 +654,64 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -719,64 +722,64 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9270555555555555</v>
+        <v>0.9285302593659942</v>
       </c>
       <c r="D3">
-        <v>0.9332777777777778</v>
+        <v>0.9337824207492795</v>
       </c>
       <c r="E3">
-        <v>1.139694444444444</v>
+        <v>1.123033141210375</v>
       </c>
       <c r="F3">
-        <v>0.9796388888888888</v>
+        <v>0.9802305475504323</v>
       </c>
       <c r="G3">
-        <v>0.9270555555555555</v>
+        <v>0.9285302593659942</v>
       </c>
       <c r="H3">
-        <v>0.9332777777777778</v>
+        <v>0.9337824207492795</v>
       </c>
       <c r="I3">
-        <v>1.013694444444444</v>
+        <v>1.013184438040346</v>
       </c>
       <c r="J3">
-        <v>1.014611111111111</v>
+        <v>1.015367435158501</v>
       </c>
       <c r="K3">
-        <v>0.9675</v>
+        <v>0.9681916426512969</v>
       </c>
       <c r="L3">
-        <v>0.9493888888888888</v>
+        <v>0.9529827089337176</v>
       </c>
       <c r="M3">
-        <v>0.9269444444444445</v>
+        <v>0.9285086455331412</v>
       </c>
       <c r="N3">
-        <v>0.9270555555555555</v>
+        <v>0.9285302593659942</v>
       </c>
       <c r="O3">
-        <v>1.036486111111111</v>
+        <v>1.028407780979827</v>
       </c>
       <c r="P3">
-        <v>1.059666666666667</v>
+        <v>1.051631844380403</v>
       </c>
       <c r="Q3">
-        <v>1.000009259259259</v>
+        <v>0.9951152737752161</v>
       </c>
       <c r="R3">
-        <v>1.017537037037037</v>
+        <v>1.012348703170029</v>
       </c>
       <c r="S3">
-        <v>1.000009259259259</v>
+        <v>0.995115273775216</v>
       </c>
       <c r="T3">
-        <v>0.9949166666666666</v>
+        <v>0.9913940922190201</v>
       </c>
       <c r="U3">
-        <v>0.9813444444444442</v>
+        <v>0.9788213256484148</v>
       </c>
       <c r="V3">
-        <v>0.9906076388888889</v>
+        <v>0.9894128242074928</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -787,64 +790,64 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.45</v>
+        <v>1.005307179276419</v>
       </c>
       <c r="D4">
-        <v>0.61</v>
+        <v>0.9984349680918845</v>
       </c>
       <c r="E4">
-        <v>2.18</v>
+        <v>0.9850033373365101</v>
       </c>
       <c r="F4">
-        <v>0.93</v>
+        <v>0.9920020327157983</v>
       </c>
       <c r="G4">
-        <v>0.45</v>
+        <v>1.005307179276419</v>
       </c>
       <c r="H4">
-        <v>0.61</v>
+        <v>0.9984349680918845</v>
       </c>
       <c r="I4">
-        <v>1.11</v>
+        <v>0.9876495415850353</v>
       </c>
       <c r="J4">
-        <v>1.18</v>
+        <v>0.9852302642034835</v>
       </c>
       <c r="K4">
-        <v>0.77</v>
+        <v>0.9956772240117523</v>
       </c>
       <c r="L4">
-        <v>0.6899999999999999</v>
+        <v>0.9913336232172879</v>
       </c>
       <c r="M4">
-        <v>0.45</v>
+        <v>1.005275897399507</v>
       </c>
       <c r="N4">
-        <v>0.45</v>
+        <v>1.005307179276419</v>
       </c>
       <c r="O4">
-        <v>1.395</v>
+        <v>0.9917191527141973</v>
       </c>
       <c r="P4">
-        <v>1.555</v>
+        <v>0.9885026850261542</v>
       </c>
       <c r="Q4">
-        <v>1.08</v>
+        <v>0.9962484949016046</v>
       </c>
       <c r="R4">
-        <v>1.24</v>
+        <v>0.9918134460480643</v>
       </c>
       <c r="S4">
-        <v>1.08</v>
+        <v>0.9962484949016046</v>
       </c>
       <c r="T4">
-        <v>1.0425</v>
+        <v>0.995186879355153</v>
       </c>
       <c r="U4">
-        <v>0.924</v>
+        <v>0.9972109393394064</v>
       </c>
       <c r="V4">
-        <v>0.99</v>
+        <v>0.9925797713047714</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -855,64 +858,64 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.51</v>
+        <v>0.45</v>
       </c>
       <c r="D5">
-        <v>0.97</v>
+        <v>0.61</v>
       </c>
       <c r="E5">
-        <v>0.9399999999999999</v>
+        <v>2.18</v>
       </c>
       <c r="F5">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="G5">
-        <v>1.51</v>
+        <v>0.45</v>
       </c>
       <c r="H5">
-        <v>0.97</v>
+        <v>0.61</v>
       </c>
       <c r="I5">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="J5">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="K5">
-        <v>1.05</v>
+        <v>0.77</v>
       </c>
       <c r="L5">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M5">
-        <v>1.51</v>
+        <v>0.45</v>
       </c>
       <c r="N5">
-        <v>1.51</v>
+        <v>0.45</v>
       </c>
       <c r="O5">
-        <v>0.955</v>
+        <v>1.395</v>
       </c>
       <c r="P5">
-        <v>0.885</v>
+        <v>1.555</v>
       </c>
       <c r="Q5">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="R5">
-        <v>0.9133333333333332</v>
+        <v>1.24</v>
       </c>
       <c r="S5">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="T5">
-        <v>1.0625</v>
+        <v>1.0425</v>
       </c>
       <c r="U5">
-        <v>1.152</v>
+        <v>0.924</v>
       </c>
       <c r="V5">
-        <v>1.01125</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -923,64 +926,64 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="D6">
-        <v>1.69</v>
+        <v>0.97</v>
       </c>
       <c r="E6">
-        <v>0.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F6">
+        <v>0.83</v>
+      </c>
+      <c r="G6">
+        <v>1.51</v>
+      </c>
+      <c r="H6">
+        <v>0.97</v>
+      </c>
+      <c r="I6">
+        <v>1.1</v>
+      </c>
+      <c r="J6">
+        <v>0.89</v>
+      </c>
+      <c r="K6">
+        <v>1.05</v>
+      </c>
+      <c r="L6">
+        <v>0.8</v>
+      </c>
+      <c r="M6">
+        <v>1.51</v>
+      </c>
+      <c r="N6">
+        <v>1.51</v>
+      </c>
+      <c r="O6">
+        <v>0.955</v>
+      </c>
+      <c r="P6">
+        <v>0.885</v>
+      </c>
+      <c r="Q6">
         <v>1.14</v>
       </c>
-      <c r="G6">
-        <v>1.82</v>
-      </c>
-      <c r="H6">
-        <v>1.69</v>
-      </c>
-      <c r="I6">
-        <v>0.68</v>
-      </c>
-      <c r="J6">
-        <v>0.62</v>
-      </c>
-      <c r="K6">
-        <v>1.43</v>
-      </c>
-      <c r="L6">
-        <v>1.07</v>
-      </c>
-      <c r="M6">
-        <v>1.82</v>
-      </c>
-      <c r="N6">
-        <v>1.82</v>
-      </c>
-      <c r="O6">
-        <v>1.135</v>
-      </c>
-      <c r="P6">
-        <v>0.8599999999999999</v>
-      </c>
-      <c r="Q6">
-        <v>1.363333333333333</v>
-      </c>
       <c r="R6">
-        <v>1.136666666666667</v>
+        <v>0.9133333333333332</v>
       </c>
       <c r="S6">
-        <v>1.363333333333333</v>
+        <v>1.14</v>
       </c>
       <c r="T6">
-        <v>1.3075</v>
+        <v>1.0625</v>
       </c>
       <c r="U6">
-        <v>1.41</v>
+        <v>1.152</v>
       </c>
       <c r="V6">
-        <v>1.12875</v>
+        <v>1.01125</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -991,64 +994,64 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.46</v>
+        <v>1.82</v>
       </c>
       <c r="D7">
-        <v>0.59</v>
+        <v>1.69</v>
       </c>
       <c r="E7">
-        <v>2.24</v>
+        <v>0.58</v>
       </c>
       <c r="F7">
-        <v>0.95</v>
+        <v>1.14</v>
       </c>
       <c r="G7">
-        <v>0.46</v>
+        <v>1.82</v>
       </c>
       <c r="H7">
-        <v>0.59</v>
+        <v>1.69</v>
       </c>
       <c r="I7">
-        <v>1.05</v>
+        <v>0.68</v>
       </c>
       <c r="J7">
-        <v>1.13</v>
+        <v>0.62</v>
       </c>
       <c r="K7">
-        <v>0.84</v>
+        <v>1.43</v>
       </c>
       <c r="L7">
-        <v>0.72</v>
+        <v>1.07</v>
       </c>
       <c r="M7">
-        <v>0.46</v>
+        <v>1.82</v>
       </c>
       <c r="N7">
-        <v>0.46</v>
+        <v>1.82</v>
       </c>
       <c r="O7">
-        <v>1.415</v>
+        <v>1.135</v>
       </c>
       <c r="P7">
-        <v>1.595</v>
+        <v>0.8599999999999999</v>
       </c>
       <c r="Q7">
-        <v>1.096666666666667</v>
+        <v>1.363333333333333</v>
       </c>
       <c r="R7">
-        <v>1.26</v>
+        <v>1.136666666666667</v>
       </c>
       <c r="S7">
-        <v>1.096666666666667</v>
+        <v>1.363333333333333</v>
       </c>
       <c r="T7">
-        <v>1.06</v>
+        <v>1.3075</v>
       </c>
       <c r="U7">
-        <v>0.9400000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="V7">
-        <v>0.9975000000000001</v>
+        <v>1.12875</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1059,64 +1062,64 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.338767123287671</v>
+        <v>0.46</v>
       </c>
       <c r="D8">
-        <v>1.164246575342466</v>
+        <v>0.59</v>
       </c>
       <c r="E8">
-        <v>0.8008219178082192</v>
+        <v>2.24</v>
       </c>
       <c r="F8">
-        <v>1.001780821917808</v>
+        <v>0.95</v>
       </c>
       <c r="G8">
-        <v>1.338767123287671</v>
+        <v>0.46</v>
       </c>
       <c r="H8">
-        <v>1.164246575342466</v>
+        <v>0.59</v>
       </c>
       <c r="I8">
-        <v>0.9120547945205479</v>
+        <v>1.05</v>
       </c>
       <c r="J8">
-        <v>0.846986301369863</v>
+        <v>1.13</v>
       </c>
       <c r="K8">
-        <v>1.111369863013699</v>
+        <v>0.84</v>
       </c>
       <c r="L8">
-        <v>1.02054794520548</v>
+        <v>0.72</v>
       </c>
       <c r="M8">
-        <v>1.338767123287671</v>
+        <v>0.46</v>
       </c>
       <c r="N8">
-        <v>1.338767123287671</v>
+        <v>0.46</v>
       </c>
       <c r="O8">
-        <v>0.9825342465753425</v>
+        <v>1.415</v>
       </c>
       <c r="P8">
-        <v>0.9013013698630137</v>
+        <v>1.595</v>
       </c>
       <c r="Q8">
-        <v>1.101278538812785</v>
+        <v>1.096666666666667</v>
       </c>
       <c r="R8">
-        <v>0.9889497716894976</v>
+        <v>1.26</v>
       </c>
       <c r="S8">
-        <v>1.101278538812785</v>
+        <v>1.096666666666667</v>
       </c>
       <c r="T8">
-        <v>1.076404109589041</v>
+        <v>1.06</v>
       </c>
       <c r="U8">
-        <v>1.128876712328767</v>
+        <v>0.9400000000000001</v>
       </c>
       <c r="V8">
-        <v>1.024571917808219</v>
+        <v>0.9975000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1127,64 +1130,64 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003684210526316</v>
+        <v>1.338767123287671</v>
       </c>
       <c r="D9">
-        <v>0.9042105263157895</v>
+        <v>1.164246575342466</v>
       </c>
       <c r="E9">
-        <v>1.123684210526316</v>
+        <v>0.8008219178082192</v>
       </c>
       <c r="F9">
-        <v>0.9457894736842105</v>
+        <v>1.001780821917808</v>
       </c>
       <c r="G9">
-        <v>1.003684210526316</v>
+        <v>1.338767123287671</v>
       </c>
       <c r="H9">
-        <v>0.9042105263157895</v>
+        <v>1.164246575342466</v>
       </c>
       <c r="I9">
-        <v>1.063684210526316</v>
+        <v>0.9120547945205479</v>
       </c>
       <c r="J9">
-        <v>0.9773684210526316</v>
+        <v>0.846986301369863</v>
       </c>
       <c r="K9">
-        <v>0.9957894736842106</v>
+        <v>1.111369863013699</v>
       </c>
       <c r="L9">
-        <v>0.89</v>
+        <v>1.02054794520548</v>
       </c>
       <c r="M9">
-        <v>1.003684210526316</v>
+        <v>1.338767123287671</v>
       </c>
       <c r="N9">
-        <v>1.003684210526316</v>
+        <v>1.338767123287671</v>
       </c>
       <c r="O9">
-        <v>1.013947368421053</v>
+        <v>0.9825342465753425</v>
       </c>
       <c r="P9">
-        <v>1.034736842105263</v>
+        <v>0.9013013698630137</v>
       </c>
       <c r="Q9">
-        <v>1.010526315789474</v>
+        <v>1.101278538812785</v>
       </c>
       <c r="R9">
-        <v>0.9912280701754387</v>
+        <v>0.9889497716894976</v>
       </c>
       <c r="S9">
-        <v>1.010526315789474</v>
+        <v>1.101278538812785</v>
       </c>
       <c r="T9">
-        <v>0.9943421052631579</v>
+        <v>1.076404109589041</v>
       </c>
       <c r="U9">
-        <v>0.9962105263157894</v>
+        <v>1.128876712328767</v>
       </c>
       <c r="V9">
-        <v>0.9880263157894738</v>
+        <v>1.024571917808219</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1195,64 +1198,64 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.861578947368421</v>
+        <v>1.003684210526316</v>
       </c>
       <c r="D10">
-        <v>0.871578947368421</v>
+        <v>0.9042105263157895</v>
       </c>
       <c r="E10">
-        <v>1.284736842105263</v>
+        <v>1.123684210526316</v>
       </c>
       <c r="F10">
-        <v>0.9842105263157894</v>
+        <v>0.9457894736842105</v>
       </c>
       <c r="G10">
-        <v>0.861578947368421</v>
+        <v>1.003684210526316</v>
       </c>
       <c r="H10">
-        <v>0.871578947368421</v>
+        <v>0.9042105263157895</v>
       </c>
       <c r="I10">
-        <v>1.013684210526316</v>
+        <v>1.063684210526316</v>
       </c>
       <c r="J10">
-        <v>1.062105263157895</v>
+        <v>0.9773684210526316</v>
       </c>
       <c r="K10">
-        <v>0.9389473684210526</v>
+        <v>0.9957894736842106</v>
       </c>
       <c r="L10">
-        <v>0.8984210526315789</v>
+        <v>0.89</v>
       </c>
       <c r="M10">
-        <v>0.8610526315789474</v>
+        <v>1.003684210526316</v>
       </c>
       <c r="N10">
-        <v>0.861578947368421</v>
+        <v>1.003684210526316</v>
       </c>
       <c r="O10">
-        <v>1.078157894736842</v>
+        <v>1.013947368421053</v>
       </c>
       <c r="P10">
-        <v>1.134473684210526</v>
+        <v>1.034736842105263</v>
       </c>
       <c r="Q10">
-        <v>1.005964912280702</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="R10">
-        <v>1.046842105263158</v>
+        <v>0.9912280701754387</v>
       </c>
       <c r="S10">
-        <v>1.005964912280702</v>
+        <v>1.010526315789474</v>
       </c>
       <c r="T10">
-        <v>1.000526315789474</v>
+        <v>0.9943421052631579</v>
       </c>
       <c r="U10">
-        <v>0.9727368421052631</v>
+        <v>0.9962105263157894</v>
       </c>
       <c r="V10">
-        <v>0.9894078947368421</v>
+        <v>0.9880263157894738</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1263,64 +1266,64 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.5651960000000001</v>
+        <v>0.861578947368421</v>
       </c>
       <c r="D11">
-        <v>0.7293319999999983</v>
+        <v>0.871578947368421</v>
       </c>
       <c r="E11">
-        <v>1.792452000000003</v>
+        <v>1.284736842105263</v>
       </c>
       <c r="F11">
-        <v>0.9803519999999986</v>
+        <v>0.9842105263157894</v>
       </c>
       <c r="G11">
-        <v>0.5651960000000001</v>
+        <v>0.861578947368421</v>
       </c>
       <c r="H11">
-        <v>0.7293319999999983</v>
+        <v>0.871578947368421</v>
       </c>
       <c r="I11">
-        <v>1.047347999999999</v>
+        <v>1.013684210526316</v>
       </c>
       <c r="J11">
-        <v>1.157292000000001</v>
+        <v>1.062105263157895</v>
       </c>
       <c r="K11">
-        <v>0.8337279999999985</v>
+        <v>0.9389473684210526</v>
       </c>
       <c r="L11">
-        <v>0.8057599999999999</v>
+        <v>0.8984210526315789</v>
       </c>
       <c r="M11">
-        <v>0.5647799999999997</v>
+        <v>0.8610526315789474</v>
       </c>
       <c r="N11">
-        <v>0.5651960000000001</v>
+        <v>0.861578947368421</v>
       </c>
       <c r="O11">
-        <v>1.260892000000001</v>
+        <v>1.078157894736842</v>
       </c>
       <c r="P11">
-        <v>1.386402000000001</v>
+        <v>1.134473684210526</v>
       </c>
       <c r="Q11">
-        <v>1.028993333333334</v>
+        <v>1.005964912280702</v>
       </c>
       <c r="R11">
-        <v>1.167378666666667</v>
+        <v>1.046842105263158</v>
       </c>
       <c r="S11">
-        <v>1.028993333333334</v>
+        <v>1.005964912280702</v>
       </c>
       <c r="T11">
-        <v>1.016833</v>
+        <v>1.000526315789474</v>
       </c>
       <c r="U11">
-        <v>0.9265055999999999</v>
+        <v>0.9727368421052631</v>
       </c>
       <c r="V11">
-        <v>0.9889324999999998</v>
+        <v>0.9894078947368421</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1331,64 +1334,64 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.45</v>
+        <v>0.5651960000000001</v>
       </c>
       <c r="D12">
-        <v>0.61</v>
+        <v>0.7293319999999983</v>
       </c>
       <c r="E12">
-        <v>2.177237500000003</v>
+        <v>1.792452000000003</v>
       </c>
       <c r="F12">
-        <v>0.93</v>
+        <v>0.9803519999999986</v>
       </c>
       <c r="G12">
-        <v>0.45</v>
+        <v>0.5651960000000001</v>
       </c>
       <c r="H12">
-        <v>0.61</v>
+        <v>0.7293319999999983</v>
       </c>
       <c r="I12">
-        <v>1.101662499999999</v>
+        <v>1.047347999999999</v>
       </c>
       <c r="J12">
-        <v>1.18</v>
+        <v>1.157292000000001</v>
       </c>
       <c r="K12">
-        <v>0.77</v>
+        <v>0.8337279999999985</v>
       </c>
       <c r="L12">
-        <v>0.6899999999999999</v>
+        <v>0.8057599999999999</v>
       </c>
       <c r="M12">
-        <v>0.45</v>
+        <v>0.5647799999999997</v>
       </c>
       <c r="N12">
-        <v>0.45</v>
+        <v>0.5651960000000001</v>
       </c>
       <c r="O12">
-        <v>1.393618750000002</v>
+        <v>1.260892000000001</v>
       </c>
       <c r="P12">
-        <v>1.553618750000002</v>
+        <v>1.386402000000001</v>
       </c>
       <c r="Q12">
-        <v>1.079079166666668</v>
+        <v>1.028993333333334</v>
       </c>
       <c r="R12">
-        <v>1.239079166666668</v>
+        <v>1.167378666666667</v>
       </c>
       <c r="S12">
-        <v>1.079079166666668</v>
+        <v>1.028993333333334</v>
       </c>
       <c r="T12">
-        <v>1.041809375000001</v>
+        <v>1.016833</v>
       </c>
       <c r="U12">
-        <v>0.9234475000000006</v>
+        <v>0.9265055999999999</v>
       </c>
       <c r="V12">
-        <v>0.9886125000000004</v>
+        <v>0.9889324999999998</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1399,64 +1402,64 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6799373139968016</v>
+        <v>0.45</v>
       </c>
       <c r="D13">
-        <v>0.7671106207744022</v>
+        <v>0.61</v>
       </c>
       <c r="E13">
-        <v>1.660935064780803</v>
+        <v>2.177237500000003</v>
       </c>
       <c r="F13">
-        <v>0.953186363904</v>
+        <v>0.93</v>
       </c>
       <c r="G13">
-        <v>0.6799373139968016</v>
+        <v>0.45</v>
       </c>
       <c r="H13">
-        <v>0.7671106207744022</v>
+        <v>0.61</v>
       </c>
       <c r="I13">
-        <v>1.061125174374399</v>
+        <v>1.101662499999999</v>
       </c>
       <c r="J13">
-        <v>1.100664622489596</v>
+        <v>1.18</v>
       </c>
       <c r="K13">
-        <v>0.8649486254080015</v>
+        <v>0.77</v>
       </c>
       <c r="L13">
-        <v>0.8200762056703989</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M13">
-        <v>0.6799242782720016</v>
+        <v>0.45</v>
       </c>
       <c r="N13">
-        <v>0.6799373139968016</v>
+        <v>0.45</v>
       </c>
       <c r="O13">
-        <v>1.214022842777603</v>
+        <v>1.393618750000002</v>
       </c>
       <c r="P13">
-        <v>1.307060714342401</v>
+        <v>1.553618750000002</v>
       </c>
       <c r="Q13">
-        <v>1.035994333184002</v>
+        <v>1.079079166666668</v>
       </c>
       <c r="R13">
-        <v>1.127077349819735</v>
+        <v>1.239079166666668</v>
       </c>
       <c r="S13">
-        <v>1.035994333184002</v>
+        <v>1.079079166666668</v>
       </c>
       <c r="T13">
-        <v>1.015292340864002</v>
+        <v>1.041809375000001</v>
       </c>
       <c r="U13">
-        <v>0.9482213354905615</v>
+        <v>0.9234475000000006</v>
       </c>
       <c r="V13">
-        <v>0.9884979989248003</v>
+        <v>0.9886125000000004</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1467,64 +1470,64 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9925198466865341</v>
+        <v>0.6799373139968016</v>
       </c>
       <c r="D14">
-        <v>0.9923480365276607</v>
+        <v>0.7671106207744022</v>
       </c>
       <c r="E14">
-        <v>0.9912463130490972</v>
+        <v>1.660935064780803</v>
       </c>
       <c r="F14">
-        <v>0.9909893856402904</v>
+        <v>0.953186363904</v>
       </c>
       <c r="G14">
-        <v>0.9925198466865341</v>
+        <v>0.6799373139968016</v>
       </c>
       <c r="H14">
-        <v>0.9923480365276607</v>
+        <v>0.7671106207744022</v>
       </c>
       <c r="I14">
-        <v>0.990870661866622</v>
+        <v>1.061125174374399</v>
       </c>
       <c r="J14">
-        <v>0.9908381835054233</v>
+        <v>1.100664622489596</v>
       </c>
       <c r="K14">
-        <v>0.9905033285288761</v>
+        <v>0.8649486254080015</v>
       </c>
       <c r="L14">
-        <v>0.9904279454116486</v>
+        <v>0.8200762056703989</v>
       </c>
       <c r="M14">
-        <v>0.9925003681086735</v>
+        <v>0.6799242782720016</v>
       </c>
       <c r="N14">
-        <v>0.9925198466865341</v>
+        <v>0.6799373139968016</v>
       </c>
       <c r="O14">
-        <v>0.9917971747883789</v>
+        <v>1.214022842777603</v>
       </c>
       <c r="P14">
-        <v>0.9911178493446937</v>
+        <v>1.307060714342401</v>
       </c>
       <c r="Q14">
-        <v>0.9920380654210973</v>
+        <v>1.035994333184002</v>
       </c>
       <c r="R14">
-        <v>0.991527911739016</v>
+        <v>1.127077349819735</v>
       </c>
       <c r="S14">
-        <v>0.9920380654210973</v>
+        <v>1.035994333184002</v>
       </c>
       <c r="T14">
-        <v>0.9917758954758955</v>
+        <v>1.015292340864002</v>
       </c>
       <c r="U14">
-        <v>0.9919246857180232</v>
+        <v>0.9482213354905615</v>
       </c>
       <c r="V14">
-        <v>0.991217962652019</v>
+        <v>0.9884979989248003</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1535,64 +1538,64 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.999519819632665</v>
+        <v>0.9925198466865341</v>
       </c>
       <c r="D15">
-        <v>1.017562233915762</v>
+        <v>0.9923480365276607</v>
       </c>
       <c r="E15">
-        <v>0.9828356523002032</v>
+        <v>0.9912463130490972</v>
       </c>
       <c r="F15">
-        <v>0.9922549711631075</v>
+        <v>0.9909893856402904</v>
       </c>
       <c r="G15">
-        <v>0.999519819632665</v>
+        <v>0.9925198466865341</v>
       </c>
       <c r="H15">
-        <v>1.017562233915762</v>
+        <v>0.9923480365276607</v>
       </c>
       <c r="I15">
-        <v>0.9834194394324258</v>
+        <v>0.990870661866622</v>
       </c>
       <c r="J15">
-        <v>0.9833850312650245</v>
+        <v>0.9908381835054233</v>
       </c>
       <c r="K15">
-        <v>0.988071276157061</v>
+        <v>0.9905033285288761</v>
       </c>
       <c r="L15">
-        <v>1.002057048397828</v>
+        <v>0.9904279454116486</v>
       </c>
       <c r="M15">
-        <v>0.9994806574392824</v>
+        <v>0.9925003681086735</v>
       </c>
       <c r="N15">
-        <v>0.999519819632665</v>
+        <v>0.9925198466865341</v>
       </c>
       <c r="O15">
-        <v>1.000198943107983</v>
+        <v>0.9917971747883789</v>
       </c>
       <c r="P15">
-        <v>0.9875453117316553</v>
+        <v>0.9911178493446937</v>
       </c>
       <c r="Q15">
-        <v>0.9999725686162101</v>
+        <v>0.9920380654210973</v>
       </c>
       <c r="R15">
-        <v>0.9975509524596907</v>
+        <v>0.991527911739016</v>
       </c>
       <c r="S15">
-        <v>0.9999725686162101</v>
+        <v>0.9920380654210973</v>
       </c>
       <c r="T15">
-        <v>0.9980431692529343</v>
+        <v>0.9917758954758955</v>
       </c>
       <c r="U15">
-        <v>0.9983384993288805</v>
+        <v>0.9919246857180232</v>
       </c>
       <c r="V15">
-        <v>0.9936381840330096</v>
+        <v>0.991217962652019</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1603,64 +1606,64 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.051754185591003</v>
+        <v>0.999519819632665</v>
       </c>
       <c r="D16">
-        <v>1.007216551776701</v>
+        <v>1.017562233915762</v>
       </c>
       <c r="E16">
-        <v>0.9126070169667019</v>
+        <v>0.9828356523002032</v>
       </c>
       <c r="F16">
-        <v>0.9770790193104664</v>
+        <v>0.9922549711631075</v>
       </c>
       <c r="G16">
-        <v>1.051754185591003</v>
+        <v>0.999519819632665</v>
       </c>
       <c r="H16">
-        <v>1.007216551776701</v>
+        <v>1.017562233915762</v>
       </c>
       <c r="I16">
-        <v>0.9604726537987223</v>
+        <v>0.9834194394324258</v>
       </c>
       <c r="J16">
-        <v>0.950090024130424</v>
+        <v>0.9833850312650245</v>
       </c>
       <c r="K16">
-        <v>0.989248629177793</v>
+        <v>0.988071276157061</v>
       </c>
       <c r="L16">
-        <v>1.008388448695851</v>
+        <v>1.002057048397828</v>
       </c>
       <c r="M16">
-        <v>1.051754185591003</v>
+        <v>0.9994806574392824</v>
       </c>
       <c r="N16">
-        <v>1.051754185591003</v>
+        <v>0.999519819632665</v>
       </c>
       <c r="O16">
-        <v>0.9599117843717015</v>
+        <v>1.000198943107983</v>
       </c>
       <c r="P16">
-        <v>0.9448430181385841</v>
+        <v>0.9875453117316553</v>
       </c>
       <c r="Q16">
-        <v>0.9905259181114686</v>
+        <v>0.9999725686162101</v>
       </c>
       <c r="R16">
-        <v>0.9656341960179565</v>
+        <v>0.9975509524596907</v>
       </c>
       <c r="S16">
-        <v>0.9905259181114686</v>
+        <v>0.9999725686162101</v>
       </c>
       <c r="T16">
-        <v>0.9871641934112181</v>
+        <v>0.9980431692529343</v>
       </c>
       <c r="U16">
-        <v>1.000082191847175</v>
+        <v>0.9983384993288805</v>
       </c>
       <c r="V16">
-        <v>0.9821070661809579</v>
+        <v>0.9936381840330096</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1671,64 +1674,64 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9893173894792545</v>
+        <v>1.051754185591003</v>
       </c>
       <c r="D17">
-        <v>0.9876421715721428</v>
+        <v>1.007216551776701</v>
       </c>
       <c r="E17">
-        <v>0.9996453949803328</v>
+        <v>0.9126070169667019</v>
       </c>
       <c r="F17">
-        <v>0.9905801565704233</v>
+        <v>0.9770790193104664</v>
       </c>
       <c r="G17">
-        <v>0.9893173894792545</v>
+        <v>1.051754185591003</v>
       </c>
       <c r="H17">
-        <v>0.9876421715721428</v>
+        <v>1.007216551776701</v>
       </c>
       <c r="I17">
-        <v>0.9924890446546746</v>
+        <v>0.9604726537987223</v>
       </c>
       <c r="J17">
-        <v>0.9926229448606765</v>
+        <v>0.950090024130424</v>
       </c>
       <c r="K17">
-        <v>0.9894300349349977</v>
+        <v>0.989248629177793</v>
       </c>
       <c r="L17">
-        <v>0.9867028953893292</v>
+        <v>1.008388448695851</v>
       </c>
       <c r="M17">
-        <v>0.9892401149910841</v>
+        <v>1.051754185591003</v>
       </c>
       <c r="N17">
-        <v>0.9893173894792545</v>
+        <v>1.051754185591003</v>
       </c>
       <c r="O17">
-        <v>0.9936437832762378</v>
+        <v>0.9599117843717015</v>
       </c>
       <c r="P17">
-        <v>0.995112775775378</v>
+        <v>0.9448430181385841</v>
       </c>
       <c r="Q17">
-        <v>0.9922016520105768</v>
+        <v>0.9905259181114686</v>
       </c>
       <c r="R17">
-        <v>0.9926225743742997</v>
+        <v>0.9656341960179565</v>
       </c>
       <c r="S17">
-        <v>0.9922016520105768</v>
+        <v>0.9905259181114686</v>
       </c>
       <c r="T17">
-        <v>0.9917962781505384</v>
+        <v>0.9871641934112181</v>
       </c>
       <c r="U17">
-        <v>0.9913005004162816</v>
+        <v>1.000082191847175</v>
       </c>
       <c r="V17">
-        <v>0.9910537540552289</v>
+        <v>0.9821070661809579</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1739,64 +1742,64 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.010782363874431</v>
+        <v>0.9893173894792545</v>
       </c>
       <c r="D18">
-        <v>0.998178317891581</v>
+        <v>0.9876421715721428</v>
       </c>
       <c r="E18">
-        <v>0.9935350162583689</v>
+        <v>0.9996453949803328</v>
       </c>
       <c r="F18">
-        <v>0.9986907711178725</v>
+        <v>0.9905801565704233</v>
       </c>
       <c r="G18">
-        <v>1.010782363874431</v>
+        <v>0.9893173894792545</v>
       </c>
       <c r="H18">
-        <v>0.998178317891581</v>
+        <v>0.9876421715721428</v>
       </c>
       <c r="I18">
-        <v>0.985847783740136</v>
+        <v>0.9924890446546746</v>
       </c>
       <c r="J18">
-        <v>0.982706527149471</v>
+        <v>0.9926229448606765</v>
       </c>
       <c r="K18">
-        <v>1.003904974282588</v>
+        <v>0.9894300349349977</v>
       </c>
       <c r="L18">
-        <v>0.9865745883839754</v>
+        <v>0.9867028953893292</v>
       </c>
       <c r="M18">
-        <v>1.01018284342952</v>
+        <v>0.9892401149910841</v>
       </c>
       <c r="N18">
-        <v>1.010782363874431</v>
+        <v>0.9893173894792545</v>
       </c>
       <c r="O18">
-        <v>0.9958566670749749</v>
+        <v>0.9936437832762378</v>
       </c>
       <c r="P18">
-        <v>0.9961128936881207</v>
+        <v>0.995112775775378</v>
       </c>
       <c r="Q18">
-        <v>1.00083189934146</v>
+        <v>0.9922016520105768</v>
       </c>
       <c r="R18">
-        <v>0.9968013684226075</v>
+        <v>0.9926225743742997</v>
       </c>
       <c r="S18">
-        <v>1.00083189934146</v>
+        <v>0.9922016520105768</v>
       </c>
       <c r="T18">
-        <v>1.000296617285563</v>
+        <v>0.9917962781505384</v>
       </c>
       <c r="U18">
-        <v>1.002393766603337</v>
+        <v>0.9913005004162816</v>
       </c>
       <c r="V18">
-        <v>0.995027542837303</v>
+        <v>0.9910537540552289</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1807,64 +1810,64 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9949529453544491</v>
+        <v>1.010782363874431</v>
       </c>
       <c r="D19">
-        <v>0.9922110588635078</v>
+        <v>0.998178317891581</v>
       </c>
       <c r="E19">
-        <v>0.9931467215315669</v>
+        <v>0.9935350162583689</v>
       </c>
       <c r="F19">
-        <v>0.994473166830986</v>
+        <v>0.9986907711178725</v>
       </c>
       <c r="G19">
-        <v>0.9949529453544491</v>
+        <v>1.010782363874431</v>
       </c>
       <c r="H19">
-        <v>0.9922110588635078</v>
+        <v>0.998178317891581</v>
       </c>
       <c r="I19">
-        <v>0.9690312203823314</v>
+        <v>0.985847783740136</v>
       </c>
       <c r="J19">
-        <v>0.9755223352796725</v>
+        <v>0.982706527149471</v>
       </c>
       <c r="K19">
-        <v>1.001892921108688</v>
+        <v>1.003904974282588</v>
       </c>
       <c r="L19">
-        <v>0.9861827867121742</v>
+        <v>0.9865745883839754</v>
       </c>
       <c r="M19">
-        <v>0.9949529453544491</v>
+        <v>1.01018284342952</v>
       </c>
       <c r="N19">
-        <v>0.9949529453544491</v>
+        <v>1.010782363874431</v>
       </c>
       <c r="O19">
-        <v>0.9926788901975374</v>
+        <v>0.9958566670749749</v>
       </c>
       <c r="P19">
-        <v>0.9938099441812764</v>
+        <v>0.9961128936881207</v>
       </c>
       <c r="Q19">
-        <v>0.9934369085831746</v>
+        <v>1.00083189934146</v>
       </c>
       <c r="R19">
-        <v>0.993276982408687</v>
+        <v>0.9968013684226075</v>
       </c>
       <c r="S19">
-        <v>0.9934369085831746</v>
+        <v>1.00083189934146</v>
       </c>
       <c r="T19">
-        <v>0.9936959731451275</v>
+        <v>1.000296617285563</v>
       </c>
       <c r="U19">
-        <v>0.9939473675869918</v>
+        <v>1.002393766603337</v>
       </c>
       <c r="V19">
-        <v>0.9884266445079219</v>
+        <v>0.995027542837303</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1875,64 +1878,64 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.031170276737469</v>
+        <v>0.9949529453544491</v>
       </c>
       <c r="D20">
-        <v>1.029364366397271</v>
+        <v>0.9922110588635078</v>
       </c>
       <c r="E20">
-        <v>1.033184049988841</v>
+        <v>0.9931467215315669</v>
       </c>
       <c r="F20">
-        <v>1.024806619178967</v>
+        <v>0.994473166830986</v>
       </c>
       <c r="G20">
-        <v>1.031170276737469</v>
+        <v>0.9949529453544491</v>
       </c>
       <c r="H20">
-        <v>1.029364366397271</v>
+        <v>0.9922110588635078</v>
       </c>
       <c r="I20">
-        <v>0.9531395911215954</v>
+        <v>0.9690312203823314</v>
       </c>
       <c r="J20">
-        <v>0.9625818069832193</v>
+        <v>0.9755223352796725</v>
       </c>
       <c r="K20">
-        <v>1.03229969053756</v>
+        <v>1.001892921108688</v>
       </c>
       <c r="L20">
-        <v>0.9901927865088869</v>
+        <v>0.9861827867121742</v>
       </c>
       <c r="M20">
-        <v>1.029105261871665</v>
+        <v>0.9949529453544491</v>
       </c>
       <c r="N20">
-        <v>1.031170276737469</v>
+        <v>0.9949529453544491</v>
       </c>
       <c r="O20">
-        <v>1.031274208193056</v>
+        <v>0.9926788901975374</v>
       </c>
       <c r="P20">
-        <v>1.028995334583904</v>
+        <v>0.9938099441812764</v>
       </c>
       <c r="Q20">
-        <v>1.031239564374527</v>
+        <v>0.9934369085831746</v>
       </c>
       <c r="R20">
-        <v>1.02911834518836</v>
+        <v>0.993276982408687</v>
       </c>
       <c r="S20">
-        <v>1.031239564374527</v>
+        <v>0.9934369085831746</v>
       </c>
       <c r="T20">
-        <v>1.029631328075637</v>
+        <v>0.9936959731451275</v>
       </c>
       <c r="U20">
-        <v>1.029939117808004</v>
+        <v>0.9939473675869918</v>
       </c>
       <c r="V20">
-        <v>1.007092398431726</v>
+        <v>0.9884266445079219</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1943,64 +1946,64 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9884302776672491</v>
+        <v>1.031170276737469</v>
       </c>
       <c r="D21">
-        <v>1.008629981147337</v>
+        <v>1.029364366397271</v>
       </c>
       <c r="E21">
-        <v>0.9979040228917346</v>
+        <v>1.033184049988841</v>
       </c>
       <c r="F21">
-        <v>0.9935276199789356</v>
+        <v>1.024806619178967</v>
       </c>
       <c r="G21">
-        <v>0.9884302776672491</v>
+        <v>1.031170276737469</v>
       </c>
       <c r="H21">
-        <v>1.008629981147337</v>
+        <v>1.029364366397271</v>
       </c>
       <c r="I21">
-        <v>0.9848542684620287</v>
+        <v>0.9531395911215954</v>
       </c>
       <c r="J21">
-        <v>0.9888683482411555</v>
+        <v>0.9625818069832193</v>
       </c>
       <c r="K21">
-        <v>0.9852154970759254</v>
+        <v>1.03229969053756</v>
       </c>
       <c r="L21">
-        <v>0.996868146747696</v>
+        <v>0.9901927865088869</v>
       </c>
       <c r="M21">
-        <v>0.9882775540725184</v>
+        <v>1.029105261871665</v>
       </c>
       <c r="N21">
-        <v>0.9884302776672491</v>
+        <v>1.031170276737469</v>
       </c>
       <c r="O21">
-        <v>1.003267002019536</v>
+        <v>1.031274208193056</v>
       </c>
       <c r="P21">
-        <v>0.9957158214353351</v>
+        <v>1.028995334583904</v>
       </c>
       <c r="Q21">
-        <v>0.9983214272354403</v>
+        <v>1.031239564374527</v>
       </c>
       <c r="R21">
-        <v>1.000020541339336</v>
+        <v>1.02911834518836</v>
       </c>
       <c r="S21">
-        <v>0.9983214272354403</v>
+        <v>1.031239564374527</v>
       </c>
       <c r="T21">
-        <v>0.9971229754213141</v>
+        <v>1.029631328075637</v>
       </c>
       <c r="U21">
-        <v>0.9953844358705011</v>
+        <v>1.029939117808004</v>
       </c>
       <c r="V21">
-        <v>0.9930372702765078</v>
+        <v>1.007092398431726</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2011,64 +2014,64 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9848799543019316</v>
+        <v>0.9884302776672491</v>
       </c>
       <c r="D22">
-        <v>1.010993705437478</v>
+        <v>1.008629981147337</v>
       </c>
       <c r="E22">
-        <v>1.020682892004655</v>
+        <v>0.9979040228917346</v>
       </c>
       <c r="F22">
-        <v>1.002444290153886</v>
+        <v>0.9935276199789356</v>
       </c>
       <c r="G22">
-        <v>0.9848799543019316</v>
+        <v>0.9884302776672491</v>
       </c>
       <c r="H22">
-        <v>1.010993705437478</v>
+        <v>1.008629981147337</v>
       </c>
       <c r="I22">
-        <v>0.9794539722762785</v>
+        <v>0.9848542684620287</v>
       </c>
       <c r="J22">
-        <v>0.9886878247642469</v>
+        <v>0.9888683482411555</v>
       </c>
       <c r="K22">
-        <v>0.9881489234562459</v>
+        <v>0.9852154970759254</v>
       </c>
       <c r="L22">
-        <v>0.9941277525536489</v>
+        <v>0.996868146747696</v>
       </c>
       <c r="M22">
-        <v>0.983718383439917</v>
+        <v>0.9882775540725184</v>
       </c>
       <c r="N22">
-        <v>0.9848799543019316</v>
+        <v>0.9884302776672491</v>
       </c>
       <c r="O22">
-        <v>1.015838298721066</v>
+        <v>1.003267002019536</v>
       </c>
       <c r="P22">
-        <v>1.011563591079271</v>
+        <v>0.9957158214353351</v>
       </c>
       <c r="Q22">
-        <v>1.005518850581355</v>
+        <v>0.9983214272354403</v>
       </c>
       <c r="R22">
-        <v>1.011373629198673</v>
+        <v>1.000020541339336</v>
       </c>
       <c r="S22">
-        <v>1.005518850581355</v>
+        <v>0.9983214272354403</v>
       </c>
       <c r="T22">
-        <v>1.004750210474488</v>
+        <v>0.9971229754213141</v>
       </c>
       <c r="U22">
-        <v>1.000776159239976</v>
+        <v>0.9953844358705011</v>
       </c>
       <c r="V22">
-        <v>0.9961774143685463</v>
+        <v>0.9930372702765078</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2079,64 +2082,64 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.038858627895489</v>
+        <v>0.9848799543019316</v>
       </c>
       <c r="D23">
-        <v>1.003671881110403</v>
+        <v>1.010993705437478</v>
       </c>
       <c r="E23">
-        <v>0.8905402684360212</v>
+        <v>1.020682892004655</v>
       </c>
       <c r="F23">
-        <v>0.9828782091431</v>
+        <v>1.002444290153886</v>
       </c>
       <c r="G23">
-        <v>1.038858627895489</v>
+        <v>0.9848799543019316</v>
       </c>
       <c r="H23">
-        <v>1.003671881110403</v>
+        <v>1.010993705437478</v>
       </c>
       <c r="I23">
-        <v>0.9557780794414631</v>
+        <v>0.9794539722762785</v>
       </c>
       <c r="J23">
-        <v>0.9604266477940969</v>
+        <v>0.9886878247642469</v>
       </c>
       <c r="K23">
-        <v>0.9927545379314107</v>
+        <v>0.9881489234562459</v>
       </c>
       <c r="L23">
-        <v>1.010644619594338</v>
+        <v>0.9941277525536489</v>
       </c>
       <c r="M23">
-        <v>1.038858627895489</v>
+        <v>0.983718383439917</v>
       </c>
       <c r="N23">
-        <v>1.038858627895489</v>
+        <v>0.9848799543019316</v>
       </c>
       <c r="O23">
-        <v>0.9471060747732118</v>
+        <v>1.015838298721066</v>
       </c>
       <c r="P23">
-        <v>0.9367092387895606</v>
+        <v>1.011563591079271</v>
       </c>
       <c r="Q23">
-        <v>0.9776902591473041</v>
+        <v>1.005518850581355</v>
       </c>
       <c r="R23">
-        <v>0.9590301195631746</v>
+        <v>1.011373629198673</v>
       </c>
       <c r="S23">
-        <v>0.9776902591473041</v>
+        <v>1.005518850581355</v>
       </c>
       <c r="T23">
-        <v>0.9789872466462531</v>
+        <v>1.004750210474488</v>
       </c>
       <c r="U23">
-        <v>0.9909615228961002</v>
+        <v>1.000776159239976</v>
       </c>
       <c r="V23">
-        <v>0.9794441089182901</v>
+        <v>0.9961774143685463</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2147,64 +2150,64 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.98997218491616</v>
+        <v>1.038858627895489</v>
       </c>
       <c r="D24">
-        <v>1.042469913771773</v>
+        <v>1.003671881110403</v>
       </c>
       <c r="E24">
-        <v>1.109183542971457</v>
+        <v>0.8905402684360212</v>
       </c>
       <c r="F24">
-        <v>1.029110386429853</v>
+        <v>0.9828782091431</v>
       </c>
       <c r="G24">
-        <v>0.98997218491616</v>
+        <v>1.038858627895489</v>
       </c>
       <c r="H24">
-        <v>1.042469913771773</v>
+        <v>1.003671881110403</v>
       </c>
       <c r="I24">
-        <v>0.9560603697543031</v>
+        <v>0.9557780794414631</v>
       </c>
       <c r="J24">
-        <v>0.982137910211857</v>
+        <v>0.9604266477940969</v>
       </c>
       <c r="K24">
-        <v>0.9982158063400842</v>
+        <v>0.9927545379314107</v>
       </c>
       <c r="L24">
-        <v>0.9896245704560337</v>
+        <v>1.010644619594338</v>
       </c>
       <c r="M24">
-        <v>0.985325901468101</v>
+        <v>1.038858627895489</v>
       </c>
       <c r="N24">
-        <v>0.98997218491616</v>
+        <v>1.038858627895489</v>
       </c>
       <c r="O24">
-        <v>1.075826728371615</v>
+        <v>0.9471060747732118</v>
       </c>
       <c r="P24">
-        <v>1.069146964700655</v>
+        <v>0.9367092387895606</v>
       </c>
       <c r="Q24">
-        <v>1.047208547219797</v>
+        <v>0.9776902591473041</v>
       </c>
       <c r="R24">
-        <v>1.060254614391027</v>
+        <v>0.9590301195631746</v>
       </c>
       <c r="S24">
-        <v>1.047208547219797</v>
+        <v>0.9776902591473041</v>
       </c>
       <c r="T24">
-        <v>1.042684007022311</v>
+        <v>0.9789872466462531</v>
       </c>
       <c r="U24">
-        <v>1.032141642601081</v>
+        <v>0.9909615228961002</v>
       </c>
       <c r="V24">
-        <v>1.01209683560644</v>
+        <v>0.9794441089182901</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2215,64 +2218,64 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.063574393951261</v>
+        <v>0.98997218491616</v>
       </c>
       <c r="D25">
-        <v>1.024975328369839</v>
+        <v>1.042469913771773</v>
       </c>
       <c r="E25">
-        <v>0.9496496486352497</v>
+        <v>1.109183542971457</v>
       </c>
       <c r="F25">
-        <v>0.9957715622380683</v>
+        <v>1.029110386429853</v>
       </c>
       <c r="G25">
-        <v>1.063574393951261</v>
+        <v>0.98997218491616</v>
       </c>
       <c r="H25">
-        <v>1.024975328369839</v>
+        <v>1.042469913771773</v>
       </c>
       <c r="I25">
-        <v>0.9733658353613084</v>
+        <v>0.9560603697543031</v>
       </c>
       <c r="J25">
-        <v>0.9602257324345445</v>
+        <v>0.982137910211857</v>
       </c>
       <c r="K25">
-        <v>1.017484192052188</v>
+        <v>0.9982158063400842</v>
       </c>
       <c r="L25">
-        <v>0.9939212230181352</v>
+        <v>0.9896245704560337</v>
       </c>
       <c r="M25">
-        <v>1.063566774665678</v>
+        <v>0.985325901468101</v>
       </c>
       <c r="N25">
-        <v>1.063574393951261</v>
+        <v>0.98997218491616</v>
       </c>
       <c r="O25">
-        <v>0.9873124885025443</v>
+        <v>1.075826728371615</v>
       </c>
       <c r="P25">
-        <v>0.972710605436659</v>
+        <v>1.069146964700655</v>
       </c>
       <c r="Q25">
-        <v>1.012733123652117</v>
+        <v>1.047208547219797</v>
       </c>
       <c r="R25">
-        <v>0.9901321797477189</v>
+        <v>1.060254614391027</v>
       </c>
       <c r="S25">
-        <v>1.012733123652117</v>
+        <v>1.047208547219797</v>
       </c>
       <c r="T25">
-        <v>1.008492733298604</v>
+        <v>1.042684007022311</v>
       </c>
       <c r="U25">
-        <v>1.019509065429136</v>
+        <v>1.032141642601081</v>
       </c>
       <c r="V25">
-        <v>0.9973709895075742</v>
+        <v>1.01209683560644</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2283,64 +2286,64 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9901670669155834</v>
+        <v>1.063574393951261</v>
       </c>
       <c r="D26">
-        <v>0.9908956449655105</v>
+        <v>1.024975328369839</v>
       </c>
       <c r="E26">
-        <v>0.9926547786162603</v>
+        <v>0.9496496486352497</v>
       </c>
       <c r="F26">
-        <v>0.9910506909717958</v>
+        <v>0.9957715622380683</v>
       </c>
       <c r="G26">
-        <v>0.9901670669155834</v>
+        <v>1.063574393951261</v>
       </c>
       <c r="H26">
-        <v>0.9908956449655105</v>
+        <v>1.024975328369839</v>
       </c>
       <c r="I26">
-        <v>0.9913771386590231</v>
+        <v>0.9733658353613084</v>
       </c>
       <c r="J26">
-        <v>0.9915807817393154</v>
+        <v>0.9602257324345445</v>
       </c>
       <c r="K26">
-        <v>0.9900676611399781</v>
+        <v>1.017484192052188</v>
       </c>
       <c r="L26">
-        <v>0.9902195577059242</v>
+        <v>0.9939212230181352</v>
       </c>
       <c r="M26">
-        <v>0.9901494533627474</v>
+        <v>1.063566774665678</v>
       </c>
       <c r="N26">
-        <v>0.9901670669155834</v>
+        <v>1.063574393951261</v>
       </c>
       <c r="O26">
-        <v>0.9917752117908853</v>
+        <v>0.9873124885025443</v>
       </c>
       <c r="P26">
-        <v>0.991852734794028</v>
+        <v>0.972710605436659</v>
       </c>
       <c r="Q26">
-        <v>0.991239163499118</v>
+        <v>1.012733123652117</v>
       </c>
       <c r="R26">
-        <v>0.9915337048511889</v>
+        <v>0.9901321797477189</v>
       </c>
       <c r="S26">
-        <v>0.9912391634991181</v>
+        <v>1.012733123652117</v>
       </c>
       <c r="T26">
-        <v>0.9911920453672876</v>
+        <v>1.008492733298604</v>
       </c>
       <c r="U26">
-        <v>0.9909870496769468</v>
+        <v>1.019509065429136</v>
       </c>
       <c r="V26">
-        <v>0.9910016650891739</v>
+        <v>0.9973709895075742</v>
       </c>
     </row>
     <row r="27" spans="1:22">
@@ -2351,64 +2354,64 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.085244525850646</v>
+        <v>0.9901670669155834</v>
       </c>
       <c r="D27">
-        <v>1.080738393417606</v>
+        <v>0.9908956449655105</v>
       </c>
       <c r="E27">
-        <v>0.8992658786741968</v>
+        <v>0.9926547786162603</v>
       </c>
       <c r="F27">
-        <v>1.012742954107962</v>
+        <v>0.9910506909717958</v>
       </c>
       <c r="G27">
-        <v>1.085244525850646</v>
+        <v>0.9901670669155834</v>
       </c>
       <c r="H27">
-        <v>1.080738393417606</v>
+        <v>0.9908956449655105</v>
       </c>
       <c r="I27">
-        <v>0.9437565160882607</v>
+        <v>0.9913771386590231</v>
       </c>
       <c r="J27">
-        <v>0.9495362984556956</v>
+        <v>0.9915807817393154</v>
       </c>
       <c r="K27">
-        <v>1.029150483378866</v>
+        <v>0.9900676611399781</v>
       </c>
       <c r="L27">
-        <v>1.024214091895449</v>
+        <v>0.9902195577059242</v>
       </c>
       <c r="M27">
-        <v>1.085237963484578</v>
+        <v>0.9901494533627474</v>
       </c>
       <c r="N27">
-        <v>1.085244525850646</v>
+        <v>0.9901670669155834</v>
       </c>
       <c r="O27">
-        <v>0.9900021360459015</v>
+        <v>0.9917752117908853</v>
       </c>
       <c r="P27">
-        <v>0.9560044163910792</v>
+        <v>0.991852734794028</v>
       </c>
       <c r="Q27">
-        <v>1.02174959931415</v>
+        <v>0.991239163499118</v>
       </c>
       <c r="R27">
-        <v>0.9975824087332549</v>
+        <v>0.9915337048511889</v>
       </c>
       <c r="S27">
-        <v>1.02174959931415</v>
+        <v>0.9912391634991181</v>
       </c>
       <c r="T27">
-        <v>1.019497938012603</v>
+        <v>0.9911920453672876</v>
       </c>
       <c r="U27">
-        <v>1.032647255580212</v>
+        <v>0.9909870496769468</v>
       </c>
       <c r="V27">
-        <v>1.003081142733585</v>
+        <v>0.9910016650891739</v>
       </c>
     </row>
     <row r="28" spans="1:22">
@@ -2419,64 +2422,64 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.176894376848351</v>
+        <v>1.085244525850646</v>
       </c>
       <c r="D28">
-        <v>1.101651365295756</v>
+        <v>1.080738393417606</v>
       </c>
       <c r="E28">
-        <v>0.8615515712441136</v>
+        <v>0.8992658786741968</v>
       </c>
       <c r="F28">
-        <v>1.015655824636377</v>
+        <v>1.012742954107962</v>
       </c>
       <c r="G28">
-        <v>1.176894376848351</v>
+        <v>1.085244525850646</v>
       </c>
       <c r="H28">
-        <v>1.101651365295756</v>
+        <v>1.080738393417606</v>
       </c>
       <c r="I28">
-        <v>0.9262761243935934</v>
+        <v>0.9437565160882607</v>
       </c>
       <c r="J28">
-        <v>0.9171960895222026</v>
+        <v>0.9495362984556956</v>
       </c>
       <c r="K28">
-        <v>1.057879014117999</v>
+        <v>1.029150483378866</v>
       </c>
       <c r="L28">
-        <v>1.02693512403872</v>
+        <v>1.024214091895449</v>
       </c>
       <c r="M28">
-        <v>1.176894376848351</v>
+        <v>1.085237963484578</v>
       </c>
       <c r="N28">
-        <v>1.176894376848351</v>
+        <v>1.085244525850646</v>
       </c>
       <c r="O28">
-        <v>0.981601468269935</v>
+        <v>0.9900021360459015</v>
       </c>
       <c r="P28">
-        <v>0.9386036979402455</v>
+        <v>0.9560044163910792</v>
       </c>
       <c r="Q28">
-        <v>1.04669910446274</v>
+        <v>1.02174959931415</v>
       </c>
       <c r="R28">
-        <v>0.9929529203920824</v>
+        <v>0.9975824087332549</v>
       </c>
       <c r="S28">
-        <v>1.046699104462741</v>
+        <v>1.02174959931415</v>
       </c>
       <c r="T28">
-        <v>1.03893828450615</v>
+        <v>1.019497938012603</v>
       </c>
       <c r="U28">
-        <v>1.06652950297459</v>
+        <v>1.032647255580212</v>
       </c>
       <c r="V28">
-        <v>1.010504936262139</v>
+        <v>1.003081142733585</v>
       </c>
     </row>
     <row r="29" spans="1:22">
@@ -2487,64 +2490,64 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>1.06219215262965</v>
+        <v>1.176894376848351</v>
       </c>
       <c r="D29">
-        <v>1.023318511526038</v>
+        <v>1.101651365295756</v>
       </c>
       <c r="E29">
-        <v>0.9500602631095765</v>
+        <v>0.8615515712441136</v>
       </c>
       <c r="F29">
-        <v>0.9953957843336402</v>
+        <v>1.015655824636377</v>
       </c>
       <c r="G29">
-        <v>1.06219215262965</v>
+        <v>1.176894376848351</v>
       </c>
       <c r="H29">
-        <v>1.023318511526038</v>
+        <v>1.101651365295756</v>
       </c>
       <c r="I29">
-        <v>0.9740140579324787</v>
+        <v>0.9262761243935934</v>
       </c>
       <c r="J29">
-        <v>0.9608974374417408</v>
+        <v>0.9171960895222026</v>
       </c>
       <c r="K29">
-        <v>1.016502556598109</v>
+        <v>1.057879014117999</v>
       </c>
       <c r="L29">
-        <v>0.993832473363414</v>
+        <v>1.02693512403872</v>
       </c>
       <c r="M29">
-        <v>1.062183579361826</v>
+        <v>1.176894376848351</v>
       </c>
       <c r="N29">
-        <v>1.06219215262965</v>
+        <v>1.176894376848351</v>
       </c>
       <c r="O29">
-        <v>0.9866893873178072</v>
+        <v>0.981601468269935</v>
       </c>
       <c r="P29">
-        <v>0.9727280237216083</v>
+        <v>0.9386036979402455</v>
       </c>
       <c r="Q29">
-        <v>1.011856975755088</v>
+        <v>1.04669910446274</v>
       </c>
       <c r="R29">
-        <v>0.9895915196564182</v>
+        <v>0.9929529203920824</v>
       </c>
       <c r="S29">
-        <v>1.011856975755088</v>
+        <v>1.046699104462741</v>
       </c>
       <c r="T29">
-        <v>1.007741677899726</v>
+        <v>1.03893828450615</v>
       </c>
       <c r="U29">
-        <v>1.018631772845711</v>
+        <v>1.06652950297459</v>
       </c>
       <c r="V29">
-        <v>0.9970266546168309</v>
+        <v>1.010504936262139</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2555,64 +2558,64 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0.9898506244584085</v>
+        <v>1.06219215262965</v>
       </c>
       <c r="D30">
-        <v>0.9906661031795702</v>
+        <v>1.023318511526038</v>
       </c>
       <c r="E30">
-        <v>0.992796388851469</v>
+        <v>0.9500602631095765</v>
       </c>
       <c r="F30">
-        <v>0.9910097003913017</v>
+        <v>0.9953957843336402</v>
       </c>
       <c r="G30">
-        <v>0.9898506244584085</v>
+        <v>1.06219215262965</v>
       </c>
       <c r="H30">
-        <v>0.9906661031795702</v>
+        <v>1.023318511526038</v>
       </c>
       <c r="I30">
-        <v>0.9915227836267705</v>
+        <v>0.9740140579324787</v>
       </c>
       <c r="J30">
-        <v>0.9917371465428237</v>
+        <v>0.9608974374417408</v>
       </c>
       <c r="K30">
-        <v>0.9899161818549902</v>
+        <v>1.016502556598109</v>
       </c>
       <c r="L30">
-        <v>0.990191631151418</v>
+        <v>0.993832473363414</v>
       </c>
       <c r="M30">
-        <v>0.989832969220911</v>
+        <v>1.062183579361826</v>
       </c>
       <c r="N30">
-        <v>0.9898506244584085</v>
+        <v>1.06219215262965</v>
       </c>
       <c r="O30">
-        <v>0.9917312460155197</v>
+        <v>0.9866893873178072</v>
       </c>
       <c r="P30">
-        <v>0.9919030446213853</v>
+        <v>0.9727280237216083</v>
       </c>
       <c r="Q30">
-        <v>0.9911043721631493</v>
+        <v>1.011856975755088</v>
       </c>
       <c r="R30">
-        <v>0.9914907308074469</v>
+        <v>0.9895915196564182</v>
       </c>
       <c r="S30">
-        <v>0.9911043721631492</v>
+        <v>1.011856975755088</v>
       </c>
       <c r="T30">
-        <v>0.9910807042201872</v>
+        <v>1.007741677899726</v>
       </c>
       <c r="U30">
-        <v>0.9908346882678314</v>
+        <v>1.018631772845711</v>
       </c>
       <c r="V30">
-        <v>0.9909613200070939</v>
+        <v>0.9970266546168309</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2623,64 +2626,64 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>1.083245869639783</v>
+        <v>0.9898506244584085</v>
       </c>
       <c r="D31">
-        <v>1.078238959453206</v>
+        <v>0.9906661031795702</v>
       </c>
       <c r="E31">
-        <v>0.9001566128875392</v>
+        <v>0.992796388851469</v>
       </c>
       <c r="F31">
-        <v>1.01191473483248</v>
+        <v>0.9910097003913017</v>
       </c>
       <c r="G31">
-        <v>1.083245869639783</v>
+        <v>0.9898506244584085</v>
       </c>
       <c r="H31">
-        <v>1.078238959453206</v>
+        <v>0.9906661031795702</v>
       </c>
       <c r="I31">
-        <v>0.9450323452112933</v>
+        <v>0.9915227836267705</v>
       </c>
       <c r="J31">
-        <v>0.9505122837411307</v>
+        <v>0.9917371465428237</v>
       </c>
       <c r="K31">
-        <v>1.027628850909579</v>
+        <v>0.9899161818549902</v>
       </c>
       <c r="L31">
-        <v>1.023762851701936</v>
+        <v>0.990191631151418</v>
       </c>
       <c r="M31">
-        <v>1.08324061537832</v>
+        <v>0.989832969220911</v>
       </c>
       <c r="N31">
-        <v>1.083245869639783</v>
+        <v>0.9898506244584085</v>
       </c>
       <c r="O31">
-        <v>0.9891977861703725</v>
+        <v>0.9917312460155197</v>
       </c>
       <c r="P31">
-        <v>0.9560356738600095</v>
+        <v>0.9919030446213853</v>
       </c>
       <c r="Q31">
-        <v>1.020547147326843</v>
+        <v>0.9911043721631493</v>
       </c>
       <c r="R31">
-        <v>0.9967701023910749</v>
+        <v>0.9914907308074469</v>
       </c>
       <c r="S31">
-        <v>1.020547147326843</v>
+        <v>0.9911043721631492</v>
       </c>
       <c r="T31">
-        <v>1.018389044203252</v>
+        <v>0.9910807042201872</v>
       </c>
       <c r="U31">
-        <v>1.031360409290558</v>
+        <v>0.9908346882678314</v>
       </c>
       <c r="V31">
-        <v>1.002561563547118</v>
+        <v>0.9909613200070939</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2691,64 +2694,64 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>1.172840522453288</v>
+        <v>1.083245869639783</v>
       </c>
       <c r="D32">
-        <v>1.098260884218647</v>
+        <v>1.078238959453206</v>
       </c>
       <c r="E32">
-        <v>0.8625942638962071</v>
+        <v>0.9001566128875392</v>
       </c>
       <c r="F32">
-        <v>1.014337602993582</v>
+        <v>1.01191473483248</v>
       </c>
       <c r="G32">
-        <v>1.172840522453288</v>
+        <v>1.083245869639783</v>
       </c>
       <c r="H32">
-        <v>1.098260884218647</v>
+        <v>1.078238959453206</v>
       </c>
       <c r="I32">
-        <v>0.9282065374156215</v>
+        <v>0.9450323452112933</v>
       </c>
       <c r="J32">
-        <v>0.9189103702967949</v>
+        <v>0.9505122837411307</v>
       </c>
       <c r="K32">
-        <v>1.055387628823668</v>
+        <v>1.027628850909579</v>
       </c>
       <c r="L32">
-        <v>1.026205994239304</v>
+        <v>1.023762851701936</v>
       </c>
       <c r="M32">
-        <v>1.172840522453288</v>
+        <v>1.08324061537832</v>
       </c>
       <c r="N32">
-        <v>1.172840522453288</v>
+        <v>1.083245869639783</v>
       </c>
       <c r="O32">
-        <v>0.9804275740574271</v>
+        <v>0.9891977861703725</v>
       </c>
       <c r="P32">
-        <v>0.9384659334448946</v>
+        <v>0.9560356738600095</v>
       </c>
       <c r="Q32">
-        <v>1.044565223522714</v>
+        <v>1.020547147326843</v>
       </c>
       <c r="R32">
-        <v>0.9917309170361454</v>
+        <v>0.9967701023910749</v>
       </c>
       <c r="S32">
-        <v>1.044565223522714</v>
+        <v>1.020547147326843</v>
       </c>
       <c r="T32">
-        <v>1.037008318390431</v>
+        <v>1.018389044203252</v>
       </c>
       <c r="U32">
-        <v>1.064174759203002</v>
+        <v>1.031360409290558</v>
       </c>
       <c r="V32">
-        <v>1.009592975542139</v>
+        <v>1.002561563547118</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2759,64 +2762,64 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>1.057151985840153</v>
+        <v>1.172840522453288</v>
       </c>
       <c r="D33">
-        <v>1.017575883503723</v>
+        <v>1.098260884218647</v>
       </c>
       <c r="E33">
-        <v>0.9517576579050844</v>
+        <v>0.8625942638962071</v>
       </c>
       <c r="F33">
-        <v>0.99409502412785</v>
+        <v>1.014337602993582</v>
       </c>
       <c r="G33">
-        <v>1.057151985840153</v>
+        <v>1.172840522453288</v>
       </c>
       <c r="H33">
-        <v>1.017575883503723</v>
+        <v>1.098260884218647</v>
       </c>
       <c r="I33">
-        <v>0.9762480457551252</v>
+        <v>0.9282065374156215</v>
       </c>
       <c r="J33">
-        <v>0.9632600225354828</v>
+        <v>0.9189103702967949</v>
       </c>
       <c r="K33">
-        <v>1.013095236683683</v>
+        <v>1.055387628823668</v>
       </c>
       <c r="L33">
-        <v>0.9934809428228083</v>
+        <v>1.026205994239304</v>
       </c>
       <c r="M33">
-        <v>1.057141333546448</v>
+        <v>1.172840522453288</v>
       </c>
       <c r="N33">
-        <v>1.057151985840153</v>
+        <v>1.172840522453288</v>
       </c>
       <c r="O33">
-        <v>0.9846667707044037</v>
+        <v>0.9804275740574271</v>
       </c>
       <c r="P33">
-        <v>0.9729263410164672</v>
+        <v>0.9384659334448946</v>
       </c>
       <c r="Q33">
-        <v>1.008828509082987</v>
+        <v>1.044565223522714</v>
       </c>
       <c r="R33">
-        <v>0.9878095218455525</v>
+        <v>0.9917309170361454</v>
       </c>
       <c r="S33">
-        <v>1.008828509082987</v>
+        <v>1.044565223522714</v>
       </c>
       <c r="T33">
-        <v>1.005145137844202</v>
+        <v>1.037008318390431</v>
       </c>
       <c r="U33">
-        <v>1.015546507443392</v>
+        <v>1.064174759203002</v>
       </c>
       <c r="V33">
-        <v>0.9958330998967386</v>
+        <v>1.009592975542139</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2827,64 +2830,64 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>0.9888572446966455</v>
+        <v>1.057151985840153</v>
       </c>
       <c r="D34">
-        <v>0.9898805969906198</v>
+        <v>1.017575883503723</v>
       </c>
       <c r="E34">
-        <v>0.9934246355359323</v>
+        <v>0.9517576579050844</v>
       </c>
       <c r="F34">
-        <v>0.990861642130504</v>
+        <v>0.99409502412785</v>
       </c>
       <c r="G34">
-        <v>0.9888572446966455</v>
+        <v>1.057151985840153</v>
       </c>
       <c r="H34">
-        <v>0.9898805969906198</v>
+        <v>1.017575883503723</v>
       </c>
       <c r="I34">
-        <v>0.9919022309568577</v>
+        <v>0.9762480457551252</v>
       </c>
       <c r="J34">
-        <v>0.9921439261940261</v>
+        <v>0.9632600225354828</v>
       </c>
       <c r="K34">
-        <v>0.9894448553203997</v>
+        <v>1.013095236683683</v>
       </c>
       <c r="L34">
-        <v>0.9901011942459742</v>
+        <v>0.9934809428228083</v>
       </c>
       <c r="M34">
-        <v>0.988837253579687</v>
+        <v>1.057141333546448</v>
       </c>
       <c r="N34">
-        <v>0.9888572446966455</v>
+        <v>1.057151985840153</v>
       </c>
       <c r="O34">
-        <v>0.9916526162632761</v>
+        <v>0.9846667707044037</v>
       </c>
       <c r="P34">
-        <v>0.9921431388332181</v>
+        <v>0.9729263410164672</v>
       </c>
       <c r="Q34">
-        <v>0.9907208257410659</v>
+        <v>1.008828509082987</v>
       </c>
       <c r="R34">
-        <v>0.9913889582190186</v>
+        <v>0.9878095218455525</v>
       </c>
       <c r="S34">
-        <v>0.9907208257410659</v>
+        <v>1.008828509082987</v>
       </c>
       <c r="T34">
-        <v>0.9907560298384255</v>
+        <v>1.005145137844202</v>
       </c>
       <c r="U34">
-        <v>0.9903762728100695</v>
+        <v>1.015546507443392</v>
       </c>
       <c r="V34">
-        <v>0.99082704075887</v>
+        <v>0.9958330998967386</v>
       </c>
     </row>
     <row r="35" spans="1:22">
@@ -2895,64 +2898,64 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>1.075734360074761</v>
+        <v>0.9888572446966455</v>
       </c>
       <c r="D35">
-        <v>1.06927396568087</v>
+        <v>0.9898805969906198</v>
       </c>
       <c r="E35">
-        <v>0.9039018071863272</v>
+        <v>0.9934246355359323</v>
       </c>
       <c r="F35">
-        <v>1.008881558074384</v>
+        <v>0.990861642130504</v>
       </c>
       <c r="G35">
-        <v>1.075734360074761</v>
+        <v>0.9888572446966455</v>
       </c>
       <c r="H35">
-        <v>1.06927396568087</v>
+        <v>0.9898805969906198</v>
       </c>
       <c r="I35">
-        <v>0.949840504189418</v>
+        <v>0.9919022309568577</v>
       </c>
       <c r="J35">
-        <v>0.9541934164301736</v>
+        <v>0.9921439261940261</v>
       </c>
       <c r="K35">
-        <v>1.022141682937471</v>
+        <v>0.9894448553203997</v>
       </c>
       <c r="L35">
-        <v>1.022033643590592</v>
+        <v>0.9901011942459742</v>
       </c>
       <c r="M35">
-        <v>1.075731802207959</v>
+        <v>0.988837253579687</v>
       </c>
       <c r="N35">
-        <v>1.075734360074761</v>
+        <v>0.9888572446966455</v>
       </c>
       <c r="O35">
-        <v>0.9865878864335985</v>
+        <v>0.9916526162632761</v>
       </c>
       <c r="P35">
-        <v>0.9563916826303553</v>
+        <v>0.9921431388332181</v>
       </c>
       <c r="Q35">
-        <v>1.016303377647319</v>
+        <v>0.9907208257410659</v>
       </c>
       <c r="R35">
-        <v>0.9940191103138601</v>
+        <v>0.9913889582190186</v>
       </c>
       <c r="S35">
-        <v>1.016303377647319</v>
+        <v>0.9907208257410659</v>
       </c>
       <c r="T35">
-        <v>1.014447922754085</v>
+        <v>0.9907560298384255</v>
       </c>
       <c r="U35">
-        <v>1.026705210218221</v>
+        <v>0.9903762728100695</v>
       </c>
       <c r="V35">
-        <v>1.0007501172705</v>
+        <v>0.99082704075887</v>
       </c>
     </row>
     <row r="36" spans="1:22">
@@ -2963,64 +2966,64 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>1.157327776677433</v>
+        <v>1.075734360074761</v>
       </c>
       <c r="D36">
-        <v>1.086062275972425</v>
+        <v>1.06927396568087</v>
       </c>
       <c r="E36">
-        <v>0.8671298407818087</v>
+        <v>0.9039018071863272</v>
       </c>
       <c r="F36">
-        <v>1.009483428594326</v>
+        <v>1.008881558074384</v>
       </c>
       <c r="G36">
-        <v>1.157327776677433</v>
+        <v>1.075734360074761</v>
       </c>
       <c r="H36">
-        <v>1.086062275972425</v>
+        <v>1.06927396568087</v>
       </c>
       <c r="I36">
-        <v>0.9357050028444351</v>
+        <v>0.949840504189418</v>
       </c>
       <c r="J36">
-        <v>0.9255174189752525</v>
+        <v>0.9541934164301736</v>
       </c>
       <c r="K36">
-        <v>1.0464301197949</v>
+        <v>1.022141682937471</v>
       </c>
       <c r="L36">
-        <v>1.023346307543113</v>
+        <v>1.022033643590592</v>
       </c>
       <c r="M36">
-        <v>1.157327776677433</v>
+        <v>1.075731802207959</v>
       </c>
       <c r="N36">
-        <v>1.157327776677433</v>
+        <v>1.075734360074761</v>
       </c>
       <c r="O36">
-        <v>0.976596058377117</v>
+        <v>0.9865878864335985</v>
       </c>
       <c r="P36">
-        <v>0.9383066346880674</v>
+        <v>0.9563916826303553</v>
       </c>
       <c r="Q36">
-        <v>1.036839964477222</v>
+        <v>1.016303377647319</v>
       </c>
       <c r="R36">
-        <v>0.9875585151161866</v>
+        <v>0.9940191103138601</v>
       </c>
       <c r="S36">
-        <v>1.036839964477222</v>
+        <v>1.016303377647319</v>
       </c>
       <c r="T36">
-        <v>1.030000830506498</v>
+        <v>1.014447922754085</v>
       </c>
       <c r="U36">
-        <v>1.055466219740685</v>
+        <v>1.026705210218221</v>
       </c>
       <c r="V36">
-        <v>1.006375271397962</v>
+        <v>1.0007501172705</v>
       </c>
     </row>
     <row r="37" spans="1:22">
@@ -3031,64 +3034,64 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>1.063739983051789</v>
+        <v>1.157327776677433</v>
       </c>
       <c r="D37">
-        <v>1.025170059580433</v>
+        <v>1.086062275972425</v>
       </c>
       <c r="E37">
-        <v>0.9496046391215801</v>
+        <v>0.8671298407818087</v>
       </c>
       <c r="F37">
-        <v>0.9958161703901509</v>
+        <v>1.009483428594326</v>
       </c>
       <c r="G37">
-        <v>1.063739983051789</v>
+        <v>1.157327776677433</v>
       </c>
       <c r="H37">
-        <v>1.025170059580433</v>
+        <v>1.086062275972425</v>
       </c>
       <c r="I37">
-        <v>0.9732848321897201</v>
+        <v>0.9357050028444351</v>
       </c>
       <c r="J37">
-        <v>0.9601468653150337</v>
+        <v>0.9255174189752525</v>
       </c>
       <c r="K37">
-        <v>1.017601998831416</v>
+        <v>1.0464301197949</v>
       </c>
       <c r="L37">
-        <v>0.9939324018760658</v>
+        <v>1.023346307543113</v>
       </c>
       <c r="M37">
-        <v>1.063732511261676</v>
+        <v>1.157327776677433</v>
       </c>
       <c r="N37">
-        <v>1.063739983051789</v>
+        <v>1.157327776677433</v>
       </c>
       <c r="O37">
-        <v>0.9873873493510066</v>
+        <v>0.976596058377117</v>
       </c>
       <c r="P37">
-        <v>0.9727104047558655</v>
+        <v>0.9383066346880674</v>
       </c>
       <c r="Q37">
-        <v>1.012838227251267</v>
+        <v>1.036839964477222</v>
       </c>
       <c r="R37">
-        <v>0.9901969563640547</v>
+        <v>0.9875585151161866</v>
       </c>
       <c r="S37">
-        <v>1.012838227251267</v>
+        <v>1.036839964477222</v>
       </c>
       <c r="T37">
-        <v>1.008582713035988</v>
+        <v>1.030000830506498</v>
       </c>
       <c r="U37">
-        <v>1.019614167039149</v>
+        <v>1.055466219740685</v>
       </c>
       <c r="V37">
-        <v>0.9974121187945236</v>
+        <v>1.006375271397962</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -3099,64 +3102,64 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>0.9902071671858227</v>
+        <v>1.063739983051789</v>
       </c>
       <c r="D38">
-        <v>0.9909192252335527</v>
+        <v>1.025170059580433</v>
       </c>
       <c r="E38">
-        <v>0.9926398721748526</v>
+        <v>0.9496046391215801</v>
       </c>
       <c r="F38">
-        <v>0.9910550284796398</v>
+        <v>0.9958161703901509</v>
       </c>
       <c r="G38">
-        <v>0.9902071671858227</v>
+        <v>1.063739983051789</v>
       </c>
       <c r="H38">
-        <v>0.9909192252335527</v>
+        <v>1.025170059580433</v>
       </c>
       <c r="I38">
-        <v>0.9913558587995065</v>
+        <v>0.9732848321897201</v>
       </c>
       <c r="J38">
-        <v>0.9915623326700174</v>
+        <v>0.9601468653150337</v>
       </c>
       <c r="K38">
-        <v>0.990086887025546</v>
+        <v>1.017601998831416</v>
       </c>
       <c r="L38">
-        <v>0.9902236516722748</v>
+        <v>0.9939324018760658</v>
       </c>
       <c r="M38">
-        <v>0.9901895977842952</v>
+        <v>1.063732511261676</v>
       </c>
       <c r="N38">
-        <v>0.9902071671858227</v>
+        <v>1.063739983051789</v>
       </c>
       <c r="O38">
-        <v>0.9917795487042027</v>
+        <v>0.9873873493510066</v>
       </c>
       <c r="P38">
-        <v>0.9918474503272462</v>
+        <v>0.9727104047558655</v>
       </c>
       <c r="Q38">
-        <v>0.9912554215314094</v>
+        <v>1.012838227251267</v>
       </c>
       <c r="R38">
-        <v>0.9915380419626817</v>
+        <v>0.9901969563640547</v>
       </c>
       <c r="S38">
-        <v>0.9912554215314092</v>
+        <v>1.012838227251267</v>
       </c>
       <c r="T38">
-        <v>0.9912053232684669</v>
+        <v>1.008582713035988</v>
       </c>
       <c r="U38">
-        <v>0.9910056920519381</v>
+        <v>1.019614167039149</v>
       </c>
       <c r="V38">
-        <v>0.9910062529051515</v>
+        <v>0.9974121187945236</v>
       </c>
     </row>
     <row r="39" spans="1:22">
@@ -3167,64 +3170,64 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>1.085479783139817</v>
+        <v>0.9902071671858227</v>
       </c>
       <c r="D39">
-        <v>1.081028908376</v>
+        <v>0.9909192252335527</v>
       </c>
       <c r="E39">
-        <v>0.899166841003509</v>
+        <v>0.9926398721748526</v>
       </c>
       <c r="F39">
-        <v>1.01284429136987</v>
+        <v>0.9910550284796398</v>
       </c>
       <c r="G39">
-        <v>1.085479783139817</v>
+        <v>0.9902071671858227</v>
       </c>
       <c r="H39">
-        <v>1.081028908376</v>
+        <v>0.9909192252335527</v>
       </c>
       <c r="I39">
-        <v>0.9436047595507262</v>
+        <v>0.9913558587995065</v>
       </c>
       <c r="J39">
-        <v>0.9494223341218927</v>
+        <v>0.9915623326700174</v>
       </c>
       <c r="K39">
-        <v>1.029333135597917</v>
+        <v>0.990086887025546</v>
       </c>
       <c r="L39">
-        <v>1.024267476043342</v>
+        <v>0.9902236516722748</v>
       </c>
       <c r="M39">
-        <v>1.085473087343694</v>
+        <v>0.9901895977842952</v>
       </c>
       <c r="N39">
-        <v>1.085479783139817</v>
+        <v>0.9902071671858227</v>
       </c>
       <c r="O39">
-        <v>0.9900978746897543</v>
+        <v>0.9917795487042027</v>
       </c>
       <c r="P39">
-        <v>0.9560055661866893</v>
+        <v>0.9918474503272462</v>
       </c>
       <c r="Q39">
-        <v>1.021891844173108</v>
+        <v>0.9912554215314094</v>
       </c>
       <c r="R39">
-        <v>0.9976800135831261</v>
+        <v>0.9915380419626817</v>
       </c>
       <c r="S39">
-        <v>1.021891844173108</v>
+        <v>0.9912554215314092</v>
       </c>
       <c r="T39">
-        <v>1.019629955972299</v>
+        <v>0.9912053232684669</v>
       </c>
       <c r="U39">
-        <v>1.032799921405802</v>
+        <v>0.9910056920519381</v>
       </c>
       <c r="V39">
-        <v>1.003143441150384</v>
+        <v>0.9910062529051515</v>
       </c>
     </row>
     <row r="40" spans="1:22">
@@ -3235,64 +3238,64 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>1.177372512501868</v>
+        <v>1.085479783139817</v>
       </c>
       <c r="D40">
-        <v>1.102046218283584</v>
+        <v>1.081028908376</v>
       </c>
       <c r="E40">
-        <v>0.8614373972759841</v>
+        <v>0.899166841003509</v>
       </c>
       <c r="F40">
-        <v>1.015815350568865</v>
+        <v>1.01284429136987</v>
       </c>
       <c r="G40">
-        <v>1.177372512501868</v>
+        <v>1.085479783139817</v>
       </c>
       <c r="H40">
-        <v>1.102046218283584</v>
+        <v>1.081028908376</v>
       </c>
       <c r="I40">
-        <v>0.9260495573346166</v>
+        <v>0.9436047595507262</v>
       </c>
       <c r="J40">
-        <v>0.9169923118000854</v>
+        <v>0.9494223341218927</v>
       </c>
       <c r="K40">
-        <v>1.058178550216184</v>
+        <v>1.029333135597917</v>
       </c>
       <c r="L40">
-        <v>1.027020068567983</v>
+        <v>1.024267476043342</v>
       </c>
       <c r="M40">
-        <v>1.177372512501868</v>
+        <v>1.085473087343694</v>
       </c>
       <c r="N40">
-        <v>1.177372512501868</v>
+        <v>1.085479783139817</v>
       </c>
       <c r="O40">
-        <v>0.9817418077797843</v>
+        <v>0.9900978746897543</v>
       </c>
       <c r="P40">
-        <v>0.9386263739224244</v>
+        <v>0.9560055661866893</v>
       </c>
       <c r="Q40">
-        <v>1.046952042687145</v>
+        <v>1.021891844173108</v>
       </c>
       <c r="R40">
-        <v>0.9930996553761444</v>
+        <v>0.9976800135831261</v>
       </c>
       <c r="S40">
-        <v>1.046952042687145</v>
+        <v>1.021891844173108</v>
       </c>
       <c r="T40">
-        <v>1.039167869657575</v>
+        <v>1.019629955972299</v>
       </c>
       <c r="U40">
-        <v>1.066808798226434</v>
+        <v>1.032799921405802</v>
       </c>
       <c r="V40">
-        <v>1.010613995818646</v>
+        <v>1.003143441150384</v>
       </c>
     </row>
     <row r="41" spans="1:22">
@@ -3303,64 +3306,64 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>1.059904071283134</v>
+        <v>1.177372512501868</v>
       </c>
       <c r="D41">
-        <v>1.020635955025732</v>
+        <v>1.102046218283584</v>
       </c>
       <c r="E41">
-        <v>0.9508558596276734</v>
+        <v>0.8614373972759841</v>
       </c>
       <c r="F41">
-        <v>0.9947997404300033</v>
+        <v>1.015815350568865</v>
       </c>
       <c r="G41">
-        <v>1.059904071283134</v>
+        <v>1.177372512501868</v>
       </c>
       <c r="H41">
-        <v>1.020635955025732</v>
+        <v>1.102046218283584</v>
       </c>
       <c r="I41">
-        <v>0.9750476463644547</v>
+        <v>0.9260495573346166</v>
       </c>
       <c r="J41">
-        <v>0.9619758337379687</v>
+        <v>0.9169923118000854</v>
       </c>
       <c r="K41">
-        <v>1.014941155896315</v>
+        <v>1.058178550216184</v>
       </c>
       <c r="L41">
-        <v>0.9936707123438892</v>
+        <v>1.027020068567983</v>
       </c>
       <c r="M41">
-        <v>1.059893786925739</v>
+        <v>1.177372512501868</v>
       </c>
       <c r="N41">
-        <v>1.059904071283134</v>
+        <v>1.177372512501868</v>
       </c>
       <c r="O41">
-        <v>0.985745907326703</v>
+        <v>0.9817418077797843</v>
       </c>
       <c r="P41">
-        <v>0.9728278000288384</v>
+        <v>0.9386263739224244</v>
       </c>
       <c r="Q41">
-        <v>1.01046529531218</v>
+        <v>1.046952042687145</v>
       </c>
       <c r="R41">
-        <v>0.9887638516944698</v>
+        <v>0.9930996553761444</v>
       </c>
       <c r="S41">
-        <v>1.01046529531218</v>
+        <v>1.046952042687145</v>
       </c>
       <c r="T41">
-        <v>1.006548906591636</v>
+        <v>1.039167869657575</v>
       </c>
       <c r="U41">
-        <v>1.017219939529936</v>
+        <v>1.066808798226434</v>
       </c>
       <c r="V41">
-        <v>0.9964788718386464</v>
+        <v>1.010613995818646</v>
       </c>
     </row>
     <row r="42" spans="1:22">
@@ -3371,64 +3374,64 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>0.9893812202812035</v>
+        <v>1.059904071283134</v>
       </c>
       <c r="D42">
-        <v>0.9902942521042264</v>
+        <v>1.020635955025732</v>
       </c>
       <c r="E42">
-        <v>0.9931030983248945</v>
+        <v>0.9508558596276734</v>
       </c>
       <c r="F42">
-        <v>0.9909449256384057</v>
+        <v>0.9947997404300033</v>
       </c>
       <c r="G42">
-        <v>0.9893812202812035</v>
+        <v>1.059904071283134</v>
       </c>
       <c r="H42">
-        <v>0.9902942521042264</v>
+        <v>1.020635955025732</v>
       </c>
       <c r="I42">
-        <v>0.9917153460095363</v>
+        <v>0.9750476463644547</v>
       </c>
       <c r="J42">
-        <v>0.9919350231781086</v>
+        <v>0.9619758337379687</v>
       </c>
       <c r="K42">
-        <v>0.9897093362595685</v>
+        <v>1.014941155896315</v>
       </c>
       <c r="L42">
-        <v>0.9901437316120533</v>
+        <v>0.9936707123438892</v>
       </c>
       <c r="M42">
-        <v>0.9893618032820103</v>
+        <v>1.059893786925739</v>
       </c>
       <c r="N42">
-        <v>0.9893812202812035</v>
+        <v>1.059904071283134</v>
       </c>
       <c r="O42">
-        <v>0.9916986752145605</v>
+        <v>0.985745907326703</v>
       </c>
       <c r="P42">
-        <v>0.9920240119816501</v>
+        <v>0.9728278000288384</v>
       </c>
       <c r="Q42">
-        <v>0.9909261902367748</v>
+        <v>1.01046529531218</v>
       </c>
       <c r="R42">
-        <v>0.9914474253558422</v>
+        <v>0.9887638516944698</v>
       </c>
       <c r="S42">
-        <v>0.9909261902367748</v>
+        <v>1.01046529531218</v>
       </c>
       <c r="T42">
-        <v>0.9909308740871825</v>
+        <v>1.006548906591636</v>
       </c>
       <c r="U42">
-        <v>0.9906209433259867</v>
+        <v>1.017219939529936</v>
       </c>
       <c r="V42">
-        <v>0.9909033666759995</v>
+        <v>0.9964788718386464</v>
       </c>
     </row>
     <row r="43" spans="1:22">
@@ -3439,64 +3442,64 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>1.079868003661517</v>
+        <v>0.9893812202812035</v>
       </c>
       <c r="D43">
-        <v>1.074096803229711</v>
+        <v>0.9902942521042264</v>
       </c>
       <c r="E43">
-        <v>0.9017889421051738</v>
+        <v>0.9931030983248945</v>
       </c>
       <c r="F43">
-        <v>1.010540385947688</v>
+        <v>0.9909449256384057</v>
       </c>
       <c r="G43">
-        <v>1.079868003661517</v>
+        <v>0.9893812202812035</v>
       </c>
       <c r="H43">
-        <v>1.074096803229711</v>
+        <v>0.9902942521042264</v>
       </c>
       <c r="I43">
-        <v>0.9471995589469653</v>
+        <v>0.9917153460095363</v>
       </c>
       <c r="J43">
-        <v>0.9521542998686965</v>
+        <v>0.9919350231781086</v>
       </c>
       <c r="K43">
-        <v>1.025136463379973</v>
+        <v>0.9897093362595685</v>
       </c>
       <c r="L43">
-        <v>1.022993096590518</v>
+        <v>0.9901437316120533</v>
       </c>
       <c r="M43">
-        <v>1.079864306648865</v>
+        <v>0.9893618032820103</v>
       </c>
       <c r="N43">
-        <v>1.079868003661517</v>
+        <v>0.9893812202812035</v>
       </c>
       <c r="O43">
-        <v>0.9879428726674424</v>
+        <v>0.9916986752145605</v>
       </c>
       <c r="P43">
-        <v>0.9561646640264312</v>
+        <v>0.9920240119816501</v>
       </c>
       <c r="Q43">
-        <v>1.018584582998801</v>
+        <v>0.9909261902367748</v>
       </c>
       <c r="R43">
-        <v>0.995475377094191</v>
+        <v>0.9914474253558422</v>
       </c>
       <c r="S43">
-        <v>1.018584582998801</v>
+        <v>0.9909261902367748</v>
       </c>
       <c r="T43">
-        <v>1.016573533736023</v>
+        <v>0.9909308740871825</v>
       </c>
       <c r="U43">
-        <v>1.029232427721122</v>
+        <v>0.9906209433259867</v>
       </c>
       <c r="V43">
-        <v>1.00172219421628</v>
+        <v>0.9909033666759995</v>
       </c>
     </row>
     <row r="44" spans="1:22">
@@ -3507,64 +3510,64 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>1.165857987260909</v>
+        <v>1.079868003661517</v>
       </c>
       <c r="D44">
-        <v>1.092584726497946</v>
+        <v>1.074096803229711</v>
       </c>
       <c r="E44">
-        <v>0.8645793519330862</v>
+        <v>0.9017889421051738</v>
       </c>
       <c r="F44">
-        <v>1.012142727362685</v>
+        <v>1.010540385947688</v>
       </c>
       <c r="G44">
-        <v>1.165857987260909</v>
+        <v>1.079868003661517</v>
       </c>
       <c r="H44">
-        <v>1.092584726497946</v>
+        <v>1.074096803229711</v>
       </c>
       <c r="I44">
-        <v>0.9315744410156181</v>
+        <v>0.9471995589469653</v>
       </c>
       <c r="J44">
-        <v>0.9218640010259836</v>
+        <v>0.9521542998686965</v>
       </c>
       <c r="K44">
-        <v>1.051301762112754</v>
+        <v>1.025136463379973</v>
       </c>
       <c r="L44">
-        <v>1.024926239223905</v>
+        <v>1.022993096590518</v>
       </c>
       <c r="M44">
-        <v>1.165857987260909</v>
+        <v>1.079864306648865</v>
       </c>
       <c r="N44">
-        <v>1.165857987260909</v>
+        <v>1.079868003661517</v>
       </c>
       <c r="O44">
-        <v>0.9785820392155159</v>
+        <v>0.9879428726674424</v>
       </c>
       <c r="P44">
-        <v>0.9383610396478858</v>
+        <v>0.9561646640264312</v>
       </c>
       <c r="Q44">
-        <v>1.041007355230647</v>
+        <v>1.018584582998801</v>
       </c>
       <c r="R44">
-        <v>0.9897689352645723</v>
+        <v>0.995475377094191</v>
       </c>
       <c r="S44">
-        <v>1.041007355230647</v>
+        <v>1.018584582998801</v>
       </c>
       <c r="T44">
-        <v>1.033791198263657</v>
+        <v>1.016573533736023</v>
       </c>
       <c r="U44">
-        <v>1.060204556063107</v>
+        <v>1.029232427721122</v>
       </c>
       <c r="V44">
-        <v>1.008103904554111</v>
+        <v>1.00172219421628</v>
       </c>
     </row>
     <row r="45" spans="1:22">
@@ -3575,64 +3578,64 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>1.056372210305903</v>
+        <v>1.165857987260909</v>
       </c>
       <c r="D45">
-        <v>1.01674833675285</v>
+        <v>1.092584726497946</v>
       </c>
       <c r="E45">
-        <v>0.9520153513664936</v>
+        <v>0.8645793519330862</v>
       </c>
       <c r="F45">
-        <v>0.9939029516640321</v>
+        <v>1.012142727362685</v>
       </c>
       <c r="G45">
-        <v>1.056372210305903</v>
+        <v>1.165857987260909</v>
       </c>
       <c r="H45">
-        <v>1.01674833675285</v>
+        <v>1.092584726497946</v>
       </c>
       <c r="I45">
-        <v>0.9765732811687116</v>
+        <v>0.9315744410156181</v>
       </c>
       <c r="J45">
-        <v>0.9636377195272582</v>
+        <v>0.9218640010259836</v>
       </c>
       <c r="K45">
-        <v>1.012583754672415</v>
+        <v>1.051301762112754</v>
       </c>
       <c r="L45">
-        <v>0.9934254983029857</v>
+        <v>1.024926239223905</v>
       </c>
       <c r="M45">
-        <v>1.056361521815312</v>
+        <v>1.165857987260909</v>
       </c>
       <c r="N45">
-        <v>1.056372210305903</v>
+        <v>1.165857987260909</v>
       </c>
       <c r="O45">
-        <v>0.9843818440596717</v>
+        <v>0.9785820392155159</v>
       </c>
       <c r="P45">
-        <v>0.9729591515152629</v>
+        <v>0.9383610396478858</v>
       </c>
       <c r="Q45">
-        <v>1.008378632808415</v>
+        <v>1.041007355230647</v>
       </c>
       <c r="R45">
-        <v>0.9875555465944584</v>
+        <v>0.9897689352645723</v>
       </c>
       <c r="S45">
-        <v>1.008378632808415</v>
+        <v>1.041007355230647</v>
       </c>
       <c r="T45">
-        <v>1.00475971252232</v>
+        <v>1.033791198263657</v>
       </c>
       <c r="U45">
-        <v>1.015082212079036</v>
+        <v>1.060204556063107</v>
       </c>
       <c r="V45">
-        <v>0.9956573879700812</v>
+        <v>1.008103904554111</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -3643,64 +3646,64 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>0.9886950819995461</v>
+        <v>1.056372210305903</v>
       </c>
       <c r="D46">
-        <v>0.989779244572238</v>
+        <v>1.01674833675285</v>
       </c>
       <c r="E46">
-        <v>0.9935316195816875</v>
+        <v>0.9520153513664936</v>
       </c>
       <c r="F46">
-        <v>0.9908357678826257</v>
+        <v>0.9939029516640321</v>
       </c>
       <c r="G46">
-        <v>0.9886950819995461</v>
+        <v>1.056372210305903</v>
       </c>
       <c r="H46">
-        <v>0.989779244572238</v>
+        <v>1.01674833675285</v>
       </c>
       <c r="I46">
-        <v>0.9919503558206393</v>
+        <v>0.9765732811687116</v>
       </c>
       <c r="J46">
-        <v>0.9922234384942904</v>
+        <v>0.9636377195272582</v>
       </c>
       <c r="K46">
-        <v>0.9893623128758616</v>
+        <v>1.012583754672415</v>
       </c>
       <c r="L46">
-        <v>0.9900832517721894</v>
+        <v>0.9934254983029857</v>
       </c>
       <c r="M46">
-        <v>0.988675033019027</v>
+        <v>1.056361521815312</v>
       </c>
       <c r="N46">
-        <v>0.9886950819995461</v>
+        <v>1.056372210305903</v>
       </c>
       <c r="O46">
-        <v>0.9916554320769627</v>
+        <v>0.9843818440596717</v>
       </c>
       <c r="P46">
-        <v>0.9921836937321566</v>
+        <v>0.9729591515152629</v>
       </c>
       <c r="Q46">
-        <v>0.9906686487178238</v>
+        <v>1.008378632808415</v>
       </c>
       <c r="R46">
-        <v>0.9913822106788505</v>
+        <v>0.9875555465944584</v>
       </c>
       <c r="S46">
-        <v>0.9906686487178238</v>
+        <v>1.008378632808415</v>
       </c>
       <c r="T46">
-        <v>0.9907104285090242</v>
+        <v>1.00475971252232</v>
       </c>
       <c r="U46">
-        <v>0.9903073592071288</v>
+        <v>1.015082212079036</v>
       </c>
       <c r="V46">
-        <v>0.9908076341248848</v>
+        <v>0.9956573879700812</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3711,64 +3714,64 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>1.074563261352849</v>
+        <v>0.9886950819995461</v>
       </c>
       <c r="D47">
-        <v>1.067963530378158</v>
+        <v>0.989779244572238</v>
       </c>
       <c r="E47">
-        <v>0.9045307296837337</v>
+        <v>0.9935316195816875</v>
       </c>
       <c r="F47">
-        <v>1.008417290205539</v>
+        <v>0.9908357678826257</v>
       </c>
       <c r="G47">
-        <v>1.074563261352849</v>
+        <v>0.9886950819995461</v>
       </c>
       <c r="H47">
-        <v>1.067963530378158</v>
+        <v>0.989779244572238</v>
       </c>
       <c r="I47">
-        <v>0.9505713623323842</v>
+        <v>0.9919503558206393</v>
       </c>
       <c r="J47">
-        <v>0.9547712821996367</v>
+        <v>0.9922234384942904</v>
       </c>
       <c r="K47">
-        <v>1.021297154316179</v>
+        <v>0.9893623128758616</v>
       </c>
       <c r="L47">
-        <v>1.021753534998362</v>
+        <v>0.9900832517721894</v>
       </c>
       <c r="M47">
-        <v>1.074561155244326</v>
+        <v>0.988675033019027</v>
       </c>
       <c r="N47">
-        <v>1.074563261352849</v>
+        <v>0.9886950819995461</v>
       </c>
       <c r="O47">
-        <v>0.9862471300309459</v>
+        <v>0.9916554320769627</v>
       </c>
       <c r="P47">
-        <v>0.9564740099446362</v>
+        <v>0.9921836937321566</v>
       </c>
       <c r="Q47">
-        <v>1.015685840471581</v>
+        <v>0.9906686487178238</v>
       </c>
       <c r="R47">
-        <v>0.9936371834224769</v>
+        <v>0.9913822106788505</v>
       </c>
       <c r="S47">
-        <v>1.01568584047158</v>
+        <v>0.9906686487178238</v>
       </c>
       <c r="T47">
-        <v>1.01386870290507</v>
+        <v>0.9907104285090242</v>
       </c>
       <c r="U47">
-        <v>1.026007614594626</v>
+        <v>0.9903073592071288</v>
       </c>
       <c r="V47">
-        <v>1.000483518183355</v>
+        <v>0.9908076341248848</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3779,63 +3782,131 @@
         <v>46</v>
       </c>
       <c r="C48">
+        <v>1.074563261352849</v>
+      </c>
+      <c r="D48">
+        <v>1.067963530378158</v>
+      </c>
+      <c r="E48">
+        <v>0.9045307296837337</v>
+      </c>
+      <c r="F48">
+        <v>1.008417290205539</v>
+      </c>
+      <c r="G48">
+        <v>1.074563261352849</v>
+      </c>
+      <c r="H48">
+        <v>1.067963530378158</v>
+      </c>
+      <c r="I48">
+        <v>0.9505713623323842</v>
+      </c>
+      <c r="J48">
+        <v>0.9547712821996367</v>
+      </c>
+      <c r="K48">
+        <v>1.021297154316179</v>
+      </c>
+      <c r="L48">
+        <v>1.021753534998362</v>
+      </c>
+      <c r="M48">
+        <v>1.074561155244326</v>
+      </c>
+      <c r="N48">
+        <v>1.074563261352849</v>
+      </c>
+      <c r="O48">
+        <v>0.9862471300309459</v>
+      </c>
+      <c r="P48">
+        <v>0.9564740099446362</v>
+      </c>
+      <c r="Q48">
+        <v>1.015685840471581</v>
+      </c>
+      <c r="R48">
+        <v>0.9936371834224769</v>
+      </c>
+      <c r="S48">
+        <v>1.01568584047158</v>
+      </c>
+      <c r="T48">
+        <v>1.01386870290507</v>
+      </c>
+      <c r="U48">
+        <v>1.026007614594626</v>
+      </c>
+      <c r="V48">
+        <v>1.000483518183355</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49">
         <v>1.154915623507839</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>1.084296965909886</v>
       </c>
-      <c r="E48">
+      <c r="E49">
         <v>0.8678447466006263</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>1.008727379037603</v>
       </c>
-      <c r="G48">
+      <c r="G49">
         <v>1.154915623507839</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <v>1.084296965909886</v>
       </c>
-      <c r="I48">
+      <c r="I49">
         <v>0.9368550808126024</v>
       </c>
-      <c r="J48">
+      <c r="J49">
         <v>0.9265563916376591</v>
       </c>
-      <c r="K48">
+      <c r="K49">
         <v>1.04504087606274</v>
       </c>
-      <c r="L48">
+      <c r="L49">
         <v>1.022897795476001</v>
       </c>
-      <c r="M48">
+      <c r="M49">
         <v>1.154915623507839</v>
       </c>
-      <c r="N48">
+      <c r="N49">
         <v>1.154915623507839</v>
       </c>
-      <c r="O48">
+      <c r="O49">
         <v>0.976070856255256</v>
       </c>
-      <c r="P48">
+      <c r="P49">
         <v>0.9382860628191149</v>
       </c>
-      <c r="Q48">
+      <c r="Q49">
         <v>1.035685778672784</v>
       </c>
-      <c r="R48">
+      <c r="R49">
         <v>0.9869563638493718</v>
       </c>
-      <c r="S48">
+      <c r="S49">
         <v>1.035685778672784</v>
       </c>
-      <c r="T48">
+      <c r="T49">
         <v>1.028946178763989</v>
       </c>
-      <c r="U48">
+      <c r="U49">
         <v>1.054140067712759</v>
       </c>
-      <c r="V48">
+      <c r="V49">
         <v>1.00589185738062</v>
       </c>
     </row>
